--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04364014120709214</v>
+        <v>0.0436401412070957</v>
       </c>
       <c r="D2">
-        <v>0.1785891026620305</v>
+        <v>0.1785891026620163</v>
       </c>
       <c r="E2">
-        <v>3.504722412068062</v>
+        <v>3.504722412068105</v>
       </c>
       <c r="F2">
-        <v>2.362192749051175</v>
+        <v>2.362192749051133</v>
       </c>
       <c r="G2">
-        <v>2.12055634900895</v>
+        <v>2.120556349008908</v>
       </c>
       <c r="H2">
-        <v>1.987610063795927</v>
+        <v>1.987610063795898</v>
       </c>
       <c r="I2">
-        <v>2.317852825920269</v>
+        <v>2.317852825920255</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02918882207271878</v>
+        <v>0.02918882207267259</v>
       </c>
       <c r="D3">
-        <v>0.1472833704342662</v>
+        <v>0.147283370433982</v>
       </c>
       <c r="E3">
-        <v>2.830880407572891</v>
+        <v>2.830880407572906</v>
       </c>
       <c r="F3">
-        <v>1.646698879256931</v>
+        <v>1.646698879256959</v>
       </c>
       <c r="G3">
-        <v>1.508459001629419</v>
+        <v>1.508459001629461</v>
       </c>
       <c r="H3">
         <v>1.434865470548459</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02279867276370595</v>
+        <v>0.0227986727637024</v>
       </c>
       <c r="D4">
-        <v>0.130025756412806</v>
+        <v>0.1300257564128486</v>
       </c>
       <c r="E4">
-        <v>2.479797092679064</v>
+        <v>2.479797092679036</v>
       </c>
       <c r="F4">
-        <v>1.319559543295441</v>
+        <v>1.319559543295426</v>
       </c>
       <c r="G4">
         <v>1.224222230135837</v>
@@ -509,7 +509,7 @@
         <v>1.175469182566047</v>
       </c>
       <c r="I4">
-        <v>1.60450277731934</v>
+        <v>1.604502777319311</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>28.27923797269659</v>
+        <v>28.27923797269665</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02057873564069368</v>
+        <v>0.02057873564080737</v>
       </c>
       <c r="D5">
         <v>0.1233210845841342</v>
       </c>
       <c r="E5">
-        <v>2.346342883869212</v>
+        <v>2.346342883869241</v>
       </c>
       <c r="F5">
         <v>1.204296061044758</v>
@@ -544,10 +544,10 @@
         <v>1.123158332929719</v>
       </c>
       <c r="H5">
-        <v>1.082685720882054</v>
+        <v>1.08268572088204</v>
       </c>
       <c r="I5">
-        <v>1.513781071331962</v>
+        <v>1.513781071332005</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26.82197013730291</v>
+        <v>26.82197013730303</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02022885255907525</v>
+        <v>0.0202288525590788</v>
       </c>
       <c r="D6">
-        <v>0.122224282739225</v>
+        <v>0.1222242827392677</v>
       </c>
       <c r="E6">
         <v>2.324649408033906</v>
       </c>
       <c r="F6">
-        <v>1.186053942698123</v>
+        <v>1.186053942698152</v>
       </c>
       <c r="G6">
-        <v>1.107111307793701</v>
+        <v>1.107111307793687</v>
       </c>
       <c r="H6">
-        <v>1.067922610853614</v>
+        <v>1.067922610853628</v>
       </c>
       <c r="I6">
-        <v>1.499081171938698</v>
+        <v>1.499081171938656</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.58427700490694</v>
+        <v>26.58427700490688</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02276739240297943</v>
+        <v>0.02276739240312153</v>
       </c>
       <c r="D7">
-        <v>0.1299341638544433</v>
+        <v>0.1299341638543581</v>
       </c>
       <c r="E7">
-        <v>2.477963819576757</v>
+        <v>2.477963819576715</v>
       </c>
       <c r="F7">
-        <v>1.317941188360763</v>
+        <v>1.317941188360692</v>
       </c>
       <c r="G7">
-        <v>1.222806969713574</v>
+        <v>1.222806969713517</v>
       </c>
       <c r="H7">
-        <v>1.174172087430094</v>
+        <v>1.174172087430037</v>
       </c>
       <c r="I7">
-        <v>1.603253137980133</v>
+        <v>1.603253137980104</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>28.25927784536208</v>
+        <v>28.25927784536196</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D8">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E8">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F8">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G8">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H8">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I8">
         <v>2.140687499610479</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D9">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E9">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F9">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G9">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H9">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I9">
         <v>2.140687499610479</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D10">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E10">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F10">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G10">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H10">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I10">
         <v>2.140687499610479</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D11">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E11">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F11">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G11">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H11">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I11">
         <v>2.140687499610479</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D12">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E12">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F12">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G12">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H12">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I12">
         <v>2.140687499610479</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D13">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E13">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F13">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G13">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H13">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I13">
         <v>2.140687499610479</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D14">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E14">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F14">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G14">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H14">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I14">
         <v>2.140687499610479</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D15">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E15">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F15">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G15">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H15">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I15">
         <v>2.140687499610479</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D16">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E16">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F16">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G16">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H16">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I16">
         <v>2.140687499610479</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D17">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E17">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F17">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G17">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H17">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I17">
         <v>2.140687499610479</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D18">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E18">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F18">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G18">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H18">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I18">
         <v>2.140687499610479</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D19">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E19">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F19">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G19">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H19">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I19">
         <v>2.140687499610479</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D20">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E20">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F20">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G20">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H20">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I20">
         <v>2.140687499610479</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D21">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E21">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F21">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G21">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H21">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I21">
         <v>2.140687499610479</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D22">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E22">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F22">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G22">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H22">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I22">
         <v>2.140687499610479</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D23">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E23">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F23">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G23">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H23">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I23">
         <v>2.140687499610479</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D24">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E24">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F24">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G24">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H24">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I24">
         <v>2.140687499610479</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03793382288687042</v>
+        <v>0.03793382288703384</v>
       </c>
       <c r="D25">
-        <v>0.1672499989403775</v>
+        <v>0.167249998940477</v>
       </c>
       <c r="E25">
-        <v>3.254059146971969</v>
+        <v>3.25405914697194</v>
       </c>
       <c r="F25">
-        <v>2.083529027531668</v>
+        <v>2.083529027531611</v>
       </c>
       <c r="G25">
-        <v>1.883442279386415</v>
+        <v>1.883442279386372</v>
       </c>
       <c r="H25">
-        <v>1.774292811336878</v>
+        <v>1.774292811336849</v>
       </c>
       <c r="I25">
         <v>2.140687499610479</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36.55513047989263</v>
+        <v>36.55513047989274</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0436401412070957</v>
+        <v>0.04364014120709214</v>
       </c>
       <c r="D2">
-        <v>0.1785891026620163</v>
+        <v>0.1785891026620305</v>
       </c>
       <c r="E2">
-        <v>3.504722412068105</v>
+        <v>3.504722412068062</v>
       </c>
       <c r="F2">
-        <v>2.362192749051133</v>
+        <v>2.362192749051175</v>
       </c>
       <c r="G2">
-        <v>2.120556349008908</v>
+        <v>2.12055634900895</v>
       </c>
       <c r="H2">
-        <v>1.987610063795898</v>
+        <v>1.987610063795927</v>
       </c>
       <c r="I2">
-        <v>2.317852825920255</v>
+        <v>2.317852825920269</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02918882207267259</v>
+        <v>0.02918882207271878</v>
       </c>
       <c r="D3">
-        <v>0.147283370433982</v>
+        <v>0.1472833704342662</v>
       </c>
       <c r="E3">
-        <v>2.830880407572906</v>
+        <v>2.830880407572891</v>
       </c>
       <c r="F3">
-        <v>1.646698879256959</v>
+        <v>1.646698879256931</v>
       </c>
       <c r="G3">
-        <v>1.508459001629461</v>
+        <v>1.508459001629419</v>
       </c>
       <c r="H3">
         <v>1.434865470548459</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0227986727637024</v>
+        <v>0.02279867276370595</v>
       </c>
       <c r="D4">
-        <v>0.1300257564128486</v>
+        <v>0.130025756412806</v>
       </c>
       <c r="E4">
-        <v>2.479797092679036</v>
+        <v>2.479797092679064</v>
       </c>
       <c r="F4">
-        <v>1.319559543295426</v>
+        <v>1.319559543295441</v>
       </c>
       <c r="G4">
         <v>1.224222230135837</v>
@@ -509,7 +509,7 @@
         <v>1.175469182566047</v>
       </c>
       <c r="I4">
-        <v>1.604502777319311</v>
+        <v>1.60450277731934</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>28.27923797269665</v>
+        <v>28.27923797269659</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02057873564080737</v>
+        <v>0.02057873564069368</v>
       </c>
       <c r="D5">
         <v>0.1233210845841342</v>
       </c>
       <c r="E5">
-        <v>2.346342883869241</v>
+        <v>2.346342883869212</v>
       </c>
       <c r="F5">
         <v>1.204296061044758</v>
@@ -544,10 +544,10 @@
         <v>1.123158332929719</v>
       </c>
       <c r="H5">
-        <v>1.08268572088204</v>
+        <v>1.082685720882054</v>
       </c>
       <c r="I5">
-        <v>1.513781071332005</v>
+        <v>1.513781071331962</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26.82197013730303</v>
+        <v>26.82197013730291</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0202288525590788</v>
+        <v>0.02022885255907525</v>
       </c>
       <c r="D6">
-        <v>0.1222242827392677</v>
+        <v>0.122224282739225</v>
       </c>
       <c r="E6">
         <v>2.324649408033906</v>
       </c>
       <c r="F6">
-        <v>1.186053942698152</v>
+        <v>1.186053942698123</v>
       </c>
       <c r="G6">
-        <v>1.107111307793687</v>
+        <v>1.107111307793701</v>
       </c>
       <c r="H6">
-        <v>1.067922610853628</v>
+        <v>1.067922610853614</v>
       </c>
       <c r="I6">
-        <v>1.499081171938656</v>
+        <v>1.499081171938698</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.58427700490688</v>
+        <v>26.58427700490694</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02276739240312153</v>
+        <v>0.02276739240297943</v>
       </c>
       <c r="D7">
-        <v>0.1299341638543581</v>
+        <v>0.1299341638544433</v>
       </c>
       <c r="E7">
-        <v>2.477963819576715</v>
+        <v>2.477963819576757</v>
       </c>
       <c r="F7">
-        <v>1.317941188360692</v>
+        <v>1.317941188360763</v>
       </c>
       <c r="G7">
-        <v>1.222806969713517</v>
+        <v>1.222806969713574</v>
       </c>
       <c r="H7">
-        <v>1.174172087430037</v>
+        <v>1.174172087430094</v>
       </c>
       <c r="I7">
-        <v>1.603253137980104</v>
+        <v>1.603253137980133</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>28.25927784536196</v>
+        <v>28.25927784536208</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D8">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E8">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F8">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G8">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H8">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I8">
         <v>2.140687499610479</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D9">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E9">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F9">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G9">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H9">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I9">
         <v>2.140687499610479</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D10">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E10">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F10">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G10">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H10">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I10">
         <v>2.140687499610479</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D11">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E11">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F11">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G11">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H11">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I11">
         <v>2.140687499610479</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D12">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E12">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F12">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G12">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H12">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I12">
         <v>2.140687499610479</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D13">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E13">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F13">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G13">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H13">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I13">
         <v>2.140687499610479</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D14">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E14">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F14">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G14">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H14">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I14">
         <v>2.140687499610479</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D15">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E15">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F15">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G15">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H15">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I15">
         <v>2.140687499610479</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D16">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E16">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F16">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G16">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H16">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I16">
         <v>2.140687499610479</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D17">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E17">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F17">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G17">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H17">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I17">
         <v>2.140687499610479</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D18">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E18">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F18">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G18">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H18">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I18">
         <v>2.140687499610479</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D19">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E19">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F19">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G19">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H19">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I19">
         <v>2.140687499610479</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D20">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E20">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F20">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G20">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H20">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I20">
         <v>2.140687499610479</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D21">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E21">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F21">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G21">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H21">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I21">
         <v>2.140687499610479</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D22">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E22">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F22">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G22">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H22">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I22">
         <v>2.140687499610479</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D23">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E23">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F23">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G23">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H23">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I23">
         <v>2.140687499610479</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D24">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E24">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F24">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G24">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H24">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I24">
         <v>2.140687499610479</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03793382288703384</v>
+        <v>0.03793382288687042</v>
       </c>
       <c r="D25">
-        <v>0.167249998940477</v>
+        <v>0.1672499989403775</v>
       </c>
       <c r="E25">
-        <v>3.25405914697194</v>
+        <v>3.254059146971969</v>
       </c>
       <c r="F25">
-        <v>2.083529027531611</v>
+        <v>2.083529027531668</v>
       </c>
       <c r="G25">
-        <v>1.883442279386372</v>
+        <v>1.883442279386415</v>
       </c>
       <c r="H25">
-        <v>1.774292811336849</v>
+        <v>1.774292811336878</v>
       </c>
       <c r="I25">
         <v>2.140687499610479</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36.55513047989274</v>
+        <v>36.55513047989263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04364014120709214</v>
+        <v>0.04357684708363152</v>
       </c>
       <c r="D2">
-        <v>0.1785891026620305</v>
+        <v>0.1782163201603595</v>
       </c>
       <c r="E2">
-        <v>3.504722412068062</v>
+        <v>3.504109327636357</v>
       </c>
       <c r="F2">
-        <v>2.362192749051175</v>
+        <v>2.357500870606131</v>
       </c>
       <c r="G2">
-        <v>2.12055634900895</v>
+        <v>0.7592938772103111</v>
       </c>
       <c r="H2">
-        <v>1.987610063795927</v>
+        <v>1.359219882148878</v>
       </c>
       <c r="I2">
-        <v>2.317852825920269</v>
+        <v>1.983836878805349</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.317504713143876</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>39.16409176609267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>39.15681204114628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02918882207271878</v>
+        <v>0.02916520583881166</v>
       </c>
       <c r="D3">
-        <v>0.1472833704342662</v>
+        <v>0.1469983426772359</v>
       </c>
       <c r="E3">
-        <v>2.830880407572891</v>
+        <v>2.830542201554707</v>
       </c>
       <c r="F3">
-        <v>1.646698879256931</v>
+        <v>1.643664025536552</v>
       </c>
       <c r="G3">
-        <v>1.508459001629419</v>
+        <v>0.5429602521934811</v>
       </c>
       <c r="H3">
-        <v>1.434865470548459</v>
+        <v>0.9655592471306704</v>
       </c>
       <c r="I3">
-        <v>1.845553939830978</v>
+        <v>1.432368684163293</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.84544023183355</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>32.07080747520962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>32.06704350119088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02279867276370595</v>
+        <v>0.02278964979068121</v>
       </c>
       <c r="D4">
-        <v>0.130025756412806</v>
+        <v>0.1297835082473142</v>
       </c>
       <c r="E4">
-        <v>2.479797092679064</v>
+        <v>2.4795448595723</v>
       </c>
       <c r="F4">
-        <v>1.319559543295441</v>
+        <v>1.317202232758149</v>
       </c>
       <c r="G4">
-        <v>1.224222230135837</v>
+        <v>0.4413278082481611</v>
       </c>
       <c r="H4">
-        <v>1.175469182566047</v>
+        <v>0.7838719324008423</v>
       </c>
       <c r="I4">
-        <v>1.60450277731934</v>
+        <v>1.173503989142873</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.60445786994741</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>28.27923797269659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>28.27667916186277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02057873564069368</v>
+        <v>0.02057429273607525</v>
       </c>
       <c r="D5">
-        <v>0.1233210845841342</v>
+        <v>0.1230945673114121</v>
       </c>
       <c r="E5">
-        <v>2.346342883869212</v>
+        <v>2.346116689820676</v>
       </c>
       <c r="F5">
-        <v>1.204296061044758</v>
+        <v>1.202167836584209</v>
       </c>
       <c r="G5">
-        <v>1.123158332929719</v>
+        <v>0.4049304137892591</v>
       </c>
       <c r="H5">
-        <v>1.082685720882054</v>
+        <v>0.7195252026915</v>
       </c>
       <c r="I5">
-        <v>1.513781071331962</v>
+        <v>1.080901930581717</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.513755625832857</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26.82197013730291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>26.81978645848136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02022885255907525</v>
+        <v>0.02022510574743919</v>
       </c>
       <c r="D6">
-        <v>0.122224282739225</v>
+        <v>0.1220002945732404</v>
       </c>
       <c r="E6">
-        <v>2.324649408033906</v>
+        <v>2.324427160842106</v>
       </c>
       <c r="F6">
-        <v>1.186053942698123</v>
+        <v>1.183961553209016</v>
       </c>
       <c r="G6">
-        <v>1.107111307793701</v>
+        <v>0.3991360022190804</v>
       </c>
       <c r="H6">
-        <v>1.067922610853614</v>
+        <v>0.7093231181039954</v>
       </c>
       <c r="I6">
-        <v>1.499081171938698</v>
+        <v>1.066167284167044</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.499058589330147</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.58427700490694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>26.58215047616443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02276739240297943</v>
+        <v>0.02275843585464443</v>
       </c>
       <c r="D7">
-        <v>0.1299341638544433</v>
+        <v>0.1296921337831662</v>
       </c>
       <c r="E7">
-        <v>2.477963819576757</v>
+        <v>2.477711965852137</v>
       </c>
       <c r="F7">
-        <v>1.317941188360763</v>
+        <v>1.315587126952437</v>
       </c>
       <c r="G7">
-        <v>1.222806969713574</v>
+        <v>0.4408191866634183</v>
       </c>
       <c r="H7">
-        <v>1.174172087430094</v>
+        <v>0.7829697912597453</v>
       </c>
       <c r="I7">
-        <v>1.603253137980133</v>
+        <v>1.172209460378184</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.603208520458935</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>28.25927784536208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>28.25672447199241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D8">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E8">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F8">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G8">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H8">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I8">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D9">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E9">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F9">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G9">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H9">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I9">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D10">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E10">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F10">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G10">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H10">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I10">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D11">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E11">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F11">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G11">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H11">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I11">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D12">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E12">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F12">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G12">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H12">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I12">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D13">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E13">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F13">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G13">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H13">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I13">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D14">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E14">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F14">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G14">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H14">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I14">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D15">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E15">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F15">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G15">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H15">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I15">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D16">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E16">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F16">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G16">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H16">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I16">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D17">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E17">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F17">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G17">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H17">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I17">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D18">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E18">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F18">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G18">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H18">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I18">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D19">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E19">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F19">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G19">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H19">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I19">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D20">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E20">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F20">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G20">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H20">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I20">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D21">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E21">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F21">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G21">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H21">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I21">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D22">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E22">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F22">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G22">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H22">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I22">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D23">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E23">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F23">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G23">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H23">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I23">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D24">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E24">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F24">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G24">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H24">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I24">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>36.55513047989263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>36.54938442439465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03793382288687042</v>
+        <v>0.03788726045525692</v>
       </c>
       <c r="D25">
-        <v>0.1672499989403775</v>
+        <v>0.1669107419615301</v>
       </c>
       <c r="E25">
-        <v>3.254059146971969</v>
+        <v>3.253570281242816</v>
       </c>
       <c r="F25">
-        <v>2.083529027531668</v>
+        <v>2.079515295535259</v>
       </c>
       <c r="G25">
-        <v>1.883442279386415</v>
+        <v>0.6758168935354831</v>
       </c>
       <c r="H25">
-        <v>1.774292811336878</v>
+        <v>1.206422704491317</v>
       </c>
       <c r="I25">
-        <v>2.140687499610479</v>
+        <v>1.771038489226967</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.14044633472848</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36.55513047989263</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>36.54938442439465</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04357684708363152</v>
+        <v>0.2791971496191934</v>
       </c>
       <c r="D2">
-        <v>0.1782163201603595</v>
+        <v>0.04602679500412066</v>
       </c>
       <c r="E2">
-        <v>3.504109327636357</v>
+        <v>0.08615697167822844</v>
       </c>
       <c r="F2">
-        <v>2.357500870606131</v>
+        <v>2.534006824708001</v>
       </c>
       <c r="G2">
-        <v>0.7592938772103111</v>
+        <v>0.0007561050096987201</v>
       </c>
       <c r="H2">
-        <v>1.359219882148878</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.983836878805349</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.317504713143876</v>
+        <v>0.1641071012313233</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.27922168125087</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0576301997557529</v>
       </c>
       <c r="M2">
-        <v>39.15681204114628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.771996617048416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02916520583881166</v>
+        <v>0.2506916411969797</v>
       </c>
       <c r="D3">
-        <v>0.1469983426772359</v>
+        <v>0.03438093884031446</v>
       </c>
       <c r="E3">
-        <v>2.830542201554707</v>
+        <v>0.0789757480916542</v>
       </c>
       <c r="F3">
-        <v>1.643664025536552</v>
+        <v>2.286159271152911</v>
       </c>
       <c r="G3">
-        <v>0.5429602521934811</v>
+        <v>0.0007811198919190597</v>
       </c>
       <c r="H3">
-        <v>0.9655592471306704</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.432368684163293</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.84544023183355</v>
+        <v>0.1530054101668128</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.25485282020793</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05374040646270473</v>
       </c>
       <c r="M3">
-        <v>32.06704350119088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.587068179276628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02278964979068121</v>
+        <v>0.2342885443110276</v>
       </c>
       <c r="D4">
-        <v>0.1297835082473142</v>
+        <v>0.02829732697776777</v>
       </c>
       <c r="E4">
-        <v>2.4795448595723</v>
+        <v>0.07479382094812337</v>
       </c>
       <c r="F4">
-        <v>1.317202232758149</v>
+        <v>2.174241943577201</v>
       </c>
       <c r="G4">
-        <v>0.4413278082481611</v>
+        <v>0.0007962801174448142</v>
       </c>
       <c r="H4">
-        <v>0.7838719324008423</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.173503989142873</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.60445786994741</v>
+        <v>0.1475319096407262</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.46590169124073</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05144745821590391</v>
       </c>
       <c r="M4">
-        <v>28.27667916186277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.506585253043255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02057429273607525</v>
+        <v>0.2278289098844084</v>
       </c>
       <c r="D5">
-        <v>0.1230945673114121</v>
+        <v>0.02602682394070044</v>
       </c>
       <c r="E5">
-        <v>2.346116689820676</v>
+        <v>0.07313625921426592</v>
       </c>
       <c r="F5">
-        <v>1.202167836584209</v>
+        <v>2.136937689544681</v>
       </c>
       <c r="G5">
-        <v>0.4049304137892591</v>
+        <v>0.0008024386633663734</v>
       </c>
       <c r="H5">
-        <v>0.7195252026915</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.080901930581717</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.513755625832857</v>
+        <v>0.1455813306699909</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.75008944479481</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05053216139955907</v>
       </c>
       <c r="M5">
-        <v>26.81978645848136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.480592302944373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02022510574743919</v>
+        <v>0.2267685816882334</v>
       </c>
       <c r="D6">
-        <v>0.1220002945732404</v>
+        <v>0.02566094732227953</v>
       </c>
       <c r="E6">
-        <v>2.324427160842106</v>
+        <v>0.07286357384881725</v>
       </c>
       <c r="F6">
-        <v>1.183961553209016</v>
+        <v>2.131199952487393</v>
       </c>
       <c r="G6">
-        <v>0.3991360022190804</v>
+        <v>0.0008034608771645436</v>
       </c>
       <c r="H6">
-        <v>0.7093231181039954</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.066167284167044</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.499058589330147</v>
+        <v>0.1452729188983639</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.63192929107049</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05038120879519781</v>
       </c>
       <c r="M6">
-        <v>26.58215047616443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.476649999459852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02275843585464443</v>
+        <v>0.2342005768885258</v>
       </c>
       <c r="D7">
-        <v>0.1296921337831662</v>
+        <v>0.02826592928598615</v>
       </c>
       <c r="E7">
-        <v>2.477711965852137</v>
+        <v>0.0747712899704851</v>
       </c>
       <c r="F7">
-        <v>1.315587126952437</v>
+        <v>2.173707306601756</v>
       </c>
       <c r="G7">
-        <v>0.4408191866634183</v>
+        <v>0.0007963632167696799</v>
       </c>
       <c r="H7">
-        <v>0.7829697912597453</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.172209460378184</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.603208520458935</v>
+        <v>0.1475045361473306</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.45619905476332</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05143504251033804</v>
       </c>
       <c r="M7">
-        <v>28.25672447199241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.506208874655485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03788726045525692</v>
+        <v>0.2691048351921665</v>
       </c>
       <c r="D8">
-        <v>0.1669107419615301</v>
+        <v>0.04174845360155999</v>
       </c>
       <c r="E8">
-        <v>3.253570281242816</v>
+        <v>0.08362646479038105</v>
       </c>
       <c r="F8">
-        <v>2.079515295535259</v>
+        <v>2.43893502948103</v>
       </c>
       <c r="G8">
-        <v>0.6758168935354831</v>
+        <v>0.0007647925006498182</v>
       </c>
       <c r="H8">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2.14044633472848</v>
+        <v>0.1599606449801882</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.21962836942259</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05626584892245035</v>
       </c>
       <c r="M8">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.700327888729589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03788726045525692</v>
+        <v>0.3495982011098988</v>
       </c>
       <c r="D9">
-        <v>0.1669107419615301</v>
+        <v>0.08061981306130406</v>
       </c>
       <c r="E9">
-        <v>3.253570281242816</v>
+        <v>0.1034706364392726</v>
       </c>
       <c r="F9">
-        <v>2.079515295535259</v>
+        <v>3.398117667967256</v>
       </c>
       <c r="G9">
-        <v>0.6758168935354831</v>
+        <v>0.0006993234588177431</v>
       </c>
       <c r="H9">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.14044633472848</v>
+        <v>0.1988262656220954</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>28.38900694781307</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06680910781244975</v>
       </c>
       <c r="M9">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.442641472810877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03788726045525692</v>
+        <v>0.423757111859743</v>
       </c>
       <c r="D10">
-        <v>0.1669107419615301</v>
+        <v>0.1263231621103209</v>
       </c>
       <c r="E10">
-        <v>3.253570281242816</v>
+        <v>0.1211052589459882</v>
       </c>
       <c r="F10">
-        <v>2.079515295535259</v>
+        <v>4.655318956808429</v>
       </c>
       <c r="G10">
-        <v>0.6758168935354831</v>
+        <v>0.0006444504951803598</v>
       </c>
       <c r="H10">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2.14044633472848</v>
+        <v>0.2451558012956951</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>35.44225409690358</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07592365168329707</v>
       </c>
       <c r="M10">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.445404409540046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03788726045525692</v>
+        <v>0.4644744728133219</v>
       </c>
       <c r="D11">
-        <v>0.1669107419615301</v>
+        <v>0.155706044063507</v>
       </c>
       <c r="E11">
-        <v>3.253570281242816</v>
+        <v>0.1305286389744396</v>
       </c>
       <c r="F11">
-        <v>2.079515295535259</v>
+        <v>5.490339709493242</v>
       </c>
       <c r="G11">
-        <v>0.6758168935354831</v>
+        <v>0.000615767933164646</v>
       </c>
       <c r="H11">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2.14044633472848</v>
+        <v>0.2745808712481761</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>39.15074250653561</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08070872179565924</v>
       </c>
       <c r="M11">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.120211033454424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03788726045525692</v>
+        <v>0.4816042741966555</v>
       </c>
       <c r="D12">
-        <v>0.1669107419615301</v>
+        <v>0.1690270258668036</v>
       </c>
       <c r="E12">
-        <v>3.253570281242816</v>
+        <v>0.1344372019329043</v>
       </c>
       <c r="F12">
-        <v>2.079515295535259</v>
+        <v>5.87233257677039</v>
       </c>
       <c r="G12">
-        <v>0.6758168935354831</v>
+        <v>0.0006039411212416961</v>
       </c>
       <c r="H12">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2.14044633472848</v>
+        <v>0.287798474995185</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>40.67781203336983</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08267660900344964</v>
       </c>
       <c r="M12">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.430524309200649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03788726045525692</v>
+        <v>0.4778194809991305</v>
       </c>
       <c r="D13">
-        <v>0.1669107419615301</v>
+        <v>0.166033633805835</v>
       </c>
       <c r="E13">
-        <v>3.253570281242816</v>
+        <v>0.1335764975915801</v>
       </c>
       <c r="F13">
-        <v>2.079515295535259</v>
+        <v>5.786356805540692</v>
       </c>
       <c r="G13">
-        <v>0.6758168935354831</v>
+        <v>0.00060654307341342</v>
       </c>
       <c r="H13">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2.14044633472848</v>
+        <v>0.2848351493715455</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>40.3420810593546</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08224410497277646</v>
       </c>
       <c r="M13">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.360604128781702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03788726045525692</v>
+        <v>0.4658428236939756</v>
       </c>
       <c r="D14">
-        <v>0.1669107419615301</v>
+        <v>0.1567488499833374</v>
       </c>
       <c r="E14">
-        <v>3.253570281242816</v>
+        <v>0.1308420876932459</v>
       </c>
       <c r="F14">
-        <v>2.079515295535259</v>
+        <v>5.520182408504809</v>
       </c>
       <c r="G14">
-        <v>0.6758168935354831</v>
+        <v>0.000614818333687029</v>
       </c>
       <c r="H14">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2.14044633472848</v>
+        <v>0.2756184079926953</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>39.27344156271118</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0808668999465354</v>
       </c>
       <c r="M14">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.144420968329044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03788726045525692</v>
+        <v>0.4587622563025491</v>
       </c>
       <c r="D15">
-        <v>0.1669107419615301</v>
+        <v>0.1513923228321197</v>
       </c>
       <c r="E15">
-        <v>3.253570281242816</v>
+        <v>0.1292178505107238</v>
       </c>
       <c r="F15">
-        <v>2.079515295535259</v>
+        <v>5.367015594111365</v>
       </c>
       <c r="G15">
-        <v>0.6758168935354831</v>
+        <v>0.0006197415197604084</v>
       </c>
       <c r="H15">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2.14044633472848</v>
+        <v>0.2702838905622116</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>38.63718769623813</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08004656237739738</v>
       </c>
       <c r="M15">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.020226572635607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03788726045525692</v>
+        <v>0.4212837098859268</v>
       </c>
       <c r="D16">
-        <v>0.1669107419615301</v>
+        <v>0.1246389950244904</v>
       </c>
       <c r="E16">
-        <v>3.253570281242816</v>
+        <v>0.1205268797527523</v>
       </c>
       <c r="F16">
-        <v>2.079515295535259</v>
+        <v>4.607889272581161</v>
       </c>
       <c r="G16">
-        <v>0.6758168935354831</v>
+        <v>0.0006462215067414539</v>
       </c>
       <c r="H16">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2.14044633472848</v>
+        <v>0.2434586106738266</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>35.21335800892058</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07562807254078763</v>
       </c>
       <c r="M16">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.40724471784489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03788726045525692</v>
+        <v>0.4004187713484555</v>
       </c>
       <c r="D17">
-        <v>0.1669107419615301</v>
+        <v>0.1108789101415084</v>
       </c>
       <c r="E17">
-        <v>3.253570281242816</v>
+        <v>0.115620936432169</v>
       </c>
       <c r="F17">
-        <v>2.079515295535259</v>
+        <v>4.222796263284351</v>
       </c>
       <c r="G17">
-        <v>0.6758168935354831</v>
+        <v>0.0006613077562636878</v>
       </c>
       <c r="H17">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2.14044633472848</v>
+        <v>0.2295545788358027</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>33.26553996361031</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07311197232473532</v>
       </c>
       <c r="M17">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.098226788056849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03788726045525692</v>
+        <v>0.3890154693500847</v>
       </c>
       <c r="D18">
-        <v>0.1669107419615301</v>
+        <v>0.1036920132074215</v>
       </c>
       <c r="E18">
-        <v>3.253570281242816</v>
+        <v>0.1129194138073188</v>
       </c>
       <c r="F18">
-        <v>2.079515295535259</v>
+        <v>4.02370233389118</v>
       </c>
       <c r="G18">
-        <v>0.6758168935354831</v>
+        <v>0.0006696710440180939</v>
       </c>
       <c r="H18">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2.14044633472848</v>
+        <v>0.222269337702329</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>32.18799015220185</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07171952764223377</v>
       </c>
       <c r="M18">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.939093470928199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03788726045525692</v>
+        <v>0.3852440961854313</v>
       </c>
       <c r="D19">
-        <v>0.1669107419615301</v>
+        <v>0.10136629138659</v>
       </c>
       <c r="E19">
-        <v>3.253570281242816</v>
+        <v>0.1120227972292049</v>
       </c>
       <c r="F19">
-        <v>2.079515295535259</v>
+        <v>3.959632472008707</v>
       </c>
       <c r="G19">
-        <v>0.6758168935354831</v>
+        <v>0.0006724567067283642</v>
       </c>
       <c r="H19">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2.14044633472848</v>
+        <v>0.219909064760337</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>31.82954956604397</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07125627947308644</v>
       </c>
       <c r="M19">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.887985870252734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03788726045525692</v>
+        <v>0.4025747054920146</v>
       </c>
       <c r="D20">
-        <v>0.1669107419615301</v>
+        <v>0.1122639830980106</v>
       </c>
       <c r="E20">
-        <v>3.253570281242816</v>
+        <v>0.1161300824651157</v>
       </c>
       <c r="F20">
-        <v>2.079515295535259</v>
+        <v>4.261342342393817</v>
       </c>
       <c r="G20">
-        <v>0.6758168935354831</v>
+        <v>0.0006597363014532353</v>
       </c>
       <c r="H20">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2.14044633472848</v>
+        <v>0.2309569495245825</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>33.46821974762923</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07337384613176212</v>
       </c>
       <c r="M20">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.129088826657323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03788726045525692</v>
+        <v>0.4693049857540075</v>
       </c>
       <c r="D21">
-        <v>0.1669107419615301</v>
+        <v>0.1594037410628033</v>
       </c>
       <c r="E21">
-        <v>3.253570281242816</v>
+        <v>0.1316342178141987</v>
       </c>
       <c r="F21">
-        <v>2.079515295535259</v>
+        <v>5.596209211038712</v>
       </c>
       <c r="G21">
-        <v>0.6758168935354831</v>
+        <v>0.0006124195278121036</v>
       </c>
       <c r="H21">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2.14044633472848</v>
+        <v>0.2782577267331874</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>39.58333615497367</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08126635704218188</v>
       </c>
       <c r="M21">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.206123757587449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03788726045525692</v>
+        <v>0.5240055695029469</v>
       </c>
       <c r="D22">
-        <v>0.1669107419615301</v>
+        <v>0.2045655470890715</v>
       </c>
       <c r="E22">
-        <v>3.253570281242816</v>
+        <v>0.1439657936003513</v>
       </c>
       <c r="F22">
-        <v>2.079515295535259</v>
+        <v>6.897321193435573</v>
       </c>
       <c r="G22">
-        <v>0.6758168935354831</v>
+        <v>0.0005751849864834568</v>
       </c>
       <c r="H22">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2.14044633472848</v>
+        <v>0.322677833315808</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>44.37430940440748</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08743271537749564</v>
       </c>
       <c r="M22">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>5.26713760300629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03788726045525692</v>
+        <v>0.4933007900114603</v>
       </c>
       <c r="D23">
-        <v>0.1669107419615301</v>
+        <v>0.1784601405581974</v>
       </c>
       <c r="E23">
-        <v>3.253570281242816</v>
+        <v>0.1370866925838001</v>
       </c>
       <c r="F23">
-        <v>2.079515295535259</v>
+        <v>6.143708003444289</v>
       </c>
       <c r="G23">
-        <v>0.6758168935354831</v>
+        <v>0.0005959382297833187</v>
       </c>
       <c r="H23">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2.14044633472848</v>
+        <v>0.2971108518288901</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>41.70937210935807</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08400498205858042</v>
       </c>
       <c r="M23">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.651498012538724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03788726045525692</v>
+        <v>0.4015982044342365</v>
       </c>
       <c r="D24">
-        <v>0.1669107419615301</v>
+        <v>0.1116355921429175</v>
       </c>
       <c r="E24">
-        <v>3.253570281242816</v>
+        <v>0.1158995351376326</v>
       </c>
       <c r="F24">
-        <v>2.079515295535259</v>
+        <v>4.243847819529151</v>
       </c>
       <c r="G24">
-        <v>0.6758168935354831</v>
+        <v>0.0006604476965653332</v>
       </c>
       <c r="H24">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2.14044633472848</v>
+        <v>0.230320782111832</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>33.37645953196306</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07325528826178385</v>
       </c>
       <c r="M24">
-        <v>36.54938442439465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.115079751154028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03788726045525692</v>
+        <v>0.3259520729321821</v>
       </c>
       <c r="D25">
-        <v>0.1669107419615301</v>
+        <v>0.06806796736443133</v>
       </c>
       <c r="E25">
-        <v>3.253570281242816</v>
+        <v>0.09771925709062046</v>
       </c>
       <c r="F25">
-        <v>2.079515295535259</v>
+        <v>3.070477224301698</v>
       </c>
       <c r="G25">
-        <v>0.6758168935354831</v>
+        <v>0.0007177625089932335</v>
       </c>
       <c r="H25">
-        <v>1.206422704491317</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.771038489226967</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.14044633472848</v>
+        <v>0.1860983382255128</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>26.05100962573607</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06378775324515473</v>
       </c>
       <c r="M25">
-        <v>36.54938442439465</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.185536684129431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2791971496191934</v>
+        <v>0.1488015975625814</v>
       </c>
       <c r="D2">
-        <v>0.04602679500412066</v>
+        <v>0.006767968108105649</v>
       </c>
       <c r="E2">
-        <v>0.08615697167822844</v>
+        <v>1.453840307091284</v>
       </c>
       <c r="F2">
-        <v>2.534006824708001</v>
+        <v>1.050192062507307</v>
       </c>
       <c r="G2">
-        <v>0.0007561050096987201</v>
+        <v>1.014103151336926</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5618496060064615</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1641071012313233</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.27922168125087</v>
+        <v>5.56873652521989</v>
       </c>
       <c r="L2">
-        <v>0.0576301997557529</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.771996617048416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2506916411969797</v>
+        <v>0.128041776272326</v>
       </c>
       <c r="D3">
-        <v>0.03438093884031446</v>
+        <v>0.007688774420701705</v>
       </c>
       <c r="E3">
-        <v>0.0789757480916542</v>
+        <v>1.240425938998669</v>
       </c>
       <c r="F3">
-        <v>2.286159271152911</v>
+        <v>0.9305668032415326</v>
       </c>
       <c r="G3">
-        <v>0.0007811198919190597</v>
+        <v>0.8916783875760643</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5167845357483856</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1530054101668128</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>18.25485282020793</v>
+        <v>4.817230804780593</v>
       </c>
       <c r="L3">
-        <v>0.05374040646270473</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.587068179276628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2342885443110276</v>
+        <v>0.1155199905290942</v>
       </c>
       <c r="D4">
-        <v>0.02829732697776777</v>
+        <v>0.008331602423833573</v>
       </c>
       <c r="E4">
-        <v>0.07479382094812337</v>
+        <v>1.113106710876835</v>
       </c>
       <c r="F4">
-        <v>2.174241943577201</v>
+        <v>0.8614073084886371</v>
       </c>
       <c r="G4">
-        <v>0.0007962801174448142</v>
+        <v>0.8212458181493645</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4915985619667964</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1475319096407262</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.46590169124073</v>
+        <v>4.360488393537992</v>
       </c>
       <c r="L4">
-        <v>0.05144745821590391</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.506585253043255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2278289098844084</v>
+        <v>0.1104652679225779</v>
       </c>
       <c r="D5">
-        <v>0.02602682394070044</v>
+        <v>0.008610880988793923</v>
       </c>
       <c r="E5">
-        <v>0.07313625921426592</v>
+        <v>1.062003767837311</v>
       </c>
       <c r="F5">
-        <v>2.136937689544681</v>
+        <v>0.8341837815321043</v>
       </c>
       <c r="G5">
-        <v>0.0008024386633663734</v>
+        <v>0.7935994094751777</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.481897226666419</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1455813306699909</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.75008944479481</v>
+        <v>4.175312233908471</v>
       </c>
       <c r="L5">
-        <v>0.05053216139955907</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.480592302944373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2267685816882334</v>
+        <v>0.1096286004161016</v>
       </c>
       <c r="D6">
-        <v>0.02566094732227953</v>
+        <v>0.008658243520583753</v>
       </c>
       <c r="E6">
-        <v>0.07286357384881725</v>
+        <v>1.053561146130193</v>
       </c>
       <c r="F6">
-        <v>2.131199952487393</v>
+        <v>0.8297180178131072</v>
       </c>
       <c r="G6">
-        <v>0.0008034608771645436</v>
+        <v>0.7890687784342418</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4803185696792696</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1452729188983639</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.63192929107049</v>
+        <v>4.144615033275613</v>
       </c>
       <c r="L6">
-        <v>0.05038120879519781</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.476649999459852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2342005768885258</v>
+        <v>0.1154516370829128</v>
       </c>
       <c r="D7">
-        <v>0.02826592928598615</v>
+        <v>0.008335301380109073</v>
       </c>
       <c r="E7">
-        <v>0.0747712899704851</v>
+        <v>1.112414548482718</v>
       </c>
       <c r="F7">
-        <v>2.173707306601756</v>
+        <v>0.8610364267302941</v>
       </c>
       <c r="G7">
-        <v>0.0007963632167696799</v>
+        <v>0.8208688650776708</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4914655283226779</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1475045361473306</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.45619905476332</v>
+        <v>4.357987480599661</v>
       </c>
       <c r="L7">
-        <v>0.05143504251033804</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.506208874655485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2691048351921665</v>
+        <v>0.1415915476473373</v>
       </c>
       <c r="D8">
-        <v>0.04174845360155999</v>
+        <v>0.007067996696463297</v>
       </c>
       <c r="E8">
-        <v>0.08362646479038105</v>
+        <v>1.379384444915488</v>
       </c>
       <c r="F8">
-        <v>2.43893502948103</v>
+        <v>1.00797892127224</v>
       </c>
       <c r="G8">
-        <v>0.0007647925006498182</v>
+        <v>0.9708218793220311</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5457559072929001</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1599606449801882</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.21962836942259</v>
+        <v>5.308499832403243</v>
       </c>
       <c r="L8">
-        <v>0.05626584892245035</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.700327888729589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3495982011098988</v>
+        <v>0.1950704250730553</v>
       </c>
       <c r="D9">
-        <v>0.08061981306130406</v>
+        <v>0.005312306669033262</v>
       </c>
       <c r="E9">
-        <v>0.1034706364392726</v>
+        <v>1.940527928384867</v>
       </c>
       <c r="F9">
-        <v>3.398117667967256</v>
+        <v>1.336290151046967</v>
       </c>
       <c r="G9">
-        <v>0.0006993234588177431</v>
+        <v>1.309412964381465</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6751316021698983</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1988262656220954</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>28.38900694781307</v>
+        <v>7.221401455440684</v>
       </c>
       <c r="L9">
-        <v>0.06680910781244975</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.442641472810877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.423757111859743</v>
+        <v>0.2364106537496156</v>
       </c>
       <c r="D10">
-        <v>0.1263231621103209</v>
+        <v>0.00466191448188269</v>
       </c>
       <c r="E10">
-        <v>0.1211052589459882</v>
+        <v>2.389289583514056</v>
       </c>
       <c r="F10">
-        <v>4.655318956808429</v>
+        <v>1.611850356369814</v>
       </c>
       <c r="G10">
-        <v>0.0006444504951803598</v>
+        <v>1.596569718819637</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7893313585160513</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2451558012956951</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>35.44225409690358</v>
+        <v>8.675781188419478</v>
       </c>
       <c r="L10">
-        <v>0.07592365168329707</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.445404409540046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4644744728133219</v>
+        <v>0.2558488640350021</v>
       </c>
       <c r="D11">
-        <v>0.155706044063507</v>
+        <v>0.004561268984190292</v>
       </c>
       <c r="E11">
-        <v>0.1305286389744396</v>
+        <v>2.605222462860553</v>
       </c>
       <c r="F11">
-        <v>5.490339709493242</v>
+        <v>1.74735060841995</v>
       </c>
       <c r="G11">
-        <v>0.000615767933164646</v>
+        <v>1.738606758551754</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8468531958776282</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2745808712481761</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>39.15074250653561</v>
+        <v>9.35324561037487</v>
       </c>
       <c r="L11">
-        <v>0.08070872179565924</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.120211033454424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4816042741966555</v>
+        <v>0.263319159551628</v>
       </c>
       <c r="D12">
-        <v>0.1690270258668036</v>
+        <v>0.004557264326383148</v>
       </c>
       <c r="E12">
-        <v>0.1344372019329043</v>
+        <v>2.689093468656736</v>
       </c>
       <c r="F12">
-        <v>5.87233257677039</v>
+        <v>1.800392647897382</v>
       </c>
       <c r="G12">
-        <v>0.0006039411212416961</v>
+        <v>1.794345335375965</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8695803352523797</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.287798474995185</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>40.67781203336983</v>
+        <v>9.61258864182571</v>
       </c>
       <c r="L12">
-        <v>0.08267660900344964</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.430524309200649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4778194809991305</v>
+        <v>0.26170510016631</v>
       </c>
       <c r="D13">
-        <v>0.166033633805835</v>
+        <v>0.004556499218374199</v>
       </c>
       <c r="E13">
-        <v>0.1335764975915801</v>
+        <v>2.67092942967372</v>
       </c>
       <c r="F13">
-        <v>5.786356805540692</v>
+        <v>1.788887242056234</v>
       </c>
       <c r="G13">
-        <v>0.00060654307341342</v>
+        <v>1.782248624401433</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8646410428692661</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2848351493715455</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>40.3420810593546</v>
+        <v>9.556600550477299</v>
       </c>
       <c r="L13">
-        <v>0.08224410497277646</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.360604128781702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4658428236939756</v>
+        <v>0.2564611384993469</v>
       </c>
       <c r="D14">
-        <v>0.1567488499833374</v>
+        <v>0.004560216586003918</v>
       </c>
       <c r="E14">
-        <v>0.1308420876932459</v>
+        <v>2.612077810049726</v>
       </c>
       <c r="F14">
-        <v>5.520182408504809</v>
+        <v>1.751677982002761</v>
       </c>
       <c r="G14">
-        <v>0.000614818333687029</v>
+        <v>1.743151288399645</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8487031176050266</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2756184079926953</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>39.27344156271118</v>
+        <v>9.374522442423029</v>
       </c>
       <c r="L14">
-        <v>0.0808668999465354</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.144420968329044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4587622563025491</v>
+        <v>0.253263919655879</v>
       </c>
       <c r="D15">
-        <v>0.1513923228321197</v>
+        <v>0.004567137247226682</v>
       </c>
       <c r="E15">
-        <v>0.1292178505107238</v>
+        <v>2.576316791777501</v>
       </c>
       <c r="F15">
-        <v>5.367015594111365</v>
+        <v>1.729120577244643</v>
       </c>
       <c r="G15">
-        <v>0.0006197415197604084</v>
+        <v>1.71946750487362</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8390684387669012</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2702838905622116</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>38.63718769623813</v>
+        <v>9.26337629758126</v>
       </c>
       <c r="L15">
-        <v>0.08004656237739738</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.020226572635607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4212837098859268</v>
+        <v>0.235154561253438</v>
       </c>
       <c r="D16">
-        <v>0.1246389950244904</v>
+        <v>0.004672906878742111</v>
       </c>
       <c r="E16">
-        <v>0.1205268797527523</v>
+        <v>2.375447924011155</v>
       </c>
       <c r="F16">
-        <v>4.607889272581161</v>
+        <v>1.603221438118055</v>
       </c>
       <c r="G16">
-        <v>0.0006462215067414539</v>
+        <v>1.587542218858431</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7856959919206474</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2434586106738266</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>35.21335800892058</v>
+        <v>8.631868954055335</v>
       </c>
       <c r="L16">
-        <v>0.07562807254078763</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.40724471784489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4004187713484555</v>
+        <v>0.224219275055745</v>
       </c>
       <c r="D17">
-        <v>0.1108789101415084</v>
+        <v>0.00479169409089053</v>
       </c>
       <c r="E17">
-        <v>0.115620936432169</v>
+        <v>2.255504272875285</v>
       </c>
       <c r="F17">
-        <v>4.222796263284351</v>
+        <v>1.528764084531076</v>
       </c>
       <c r="G17">
-        <v>0.0006613077562636878</v>
+        <v>1.509737092437575</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7544752106033741</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2295545788358027</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>33.26553996361031</v>
+        <v>8.248865032265485</v>
       </c>
       <c r="L17">
-        <v>0.07311197232473532</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.098226788056849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3890154693500847</v>
+        <v>0.2179878343148971</v>
       </c>
       <c r="D18">
-        <v>0.1036920132074215</v>
+        <v>0.004877963764259974</v>
       </c>
       <c r="E18">
-        <v>0.1129194138073188</v>
+        <v>2.187596729182815</v>
       </c>
       <c r="F18">
-        <v>4.02370233389118</v>
+        <v>1.486874415035459</v>
       </c>
       <c r="G18">
-        <v>0.0006696710440180939</v>
+        <v>1.466037822594672</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7370323386852817</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.222269337702329</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>32.18799015220185</v>
+        <v>8.030028092271891</v>
       </c>
       <c r="L18">
-        <v>0.07171952764223377</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.939093470928199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3852440961854313</v>
+        <v>0.2158874628639751</v>
       </c>
       <c r="D19">
-        <v>0.10136629138659</v>
+        <v>0.004910092139436273</v>
       </c>
       <c r="E19">
-        <v>0.1120227972292049</v>
+        <v>2.164779000144748</v>
       </c>
       <c r="F19">
-        <v>3.959632472008707</v>
+        <v>1.472844564054114</v>
       </c>
       <c r="G19">
-        <v>0.0006724567067283642</v>
+        <v>1.45141409547827</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7312108758898148</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.219909064760337</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>31.82954956604397</v>
+        <v>7.956169422005757</v>
       </c>
       <c r="L19">
-        <v>0.07125627947308644</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.887985870252734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4025747054920146</v>
+        <v>0.2253772019508347</v>
       </c>
       <c r="D20">
-        <v>0.1122639830980106</v>
+        <v>0.004777151985640771</v>
       </c>
       <c r="E20">
-        <v>0.1161300824651157</v>
+        <v>2.26815793694054</v>
       </c>
       <c r="F20">
-        <v>4.261342342393817</v>
+        <v>1.536591481896551</v>
       </c>
       <c r="G20">
-        <v>0.0006597363014532353</v>
+        <v>1.517908601515785</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.75774450803695</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2309569495245825</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>33.46821974762923</v>
+        <v>8.289482191804211</v>
       </c>
       <c r="L20">
-        <v>0.07337384613176212</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.129088826657323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4693049857540075</v>
+        <v>0.2579982829265361</v>
       </c>
       <c r="D21">
-        <v>0.1594037410628033</v>
+        <v>0.004558144248237639</v>
       </c>
       <c r="E21">
-        <v>0.1316342178141987</v>
+        <v>2.62930323023626</v>
       </c>
       <c r="F21">
-        <v>5.596209211038712</v>
+        <v>1.762557850126356</v>
       </c>
       <c r="G21">
-        <v>0.0006124195278121036</v>
+        <v>1.754579370187855</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8533575527813753</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2782577267331874</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>39.58333615497367</v>
+        <v>9.427922531971888</v>
       </c>
       <c r="L21">
-        <v>0.08126635704218188</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.206123757587449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5240055695029469</v>
+        <v>0.2799671075192265</v>
       </c>
       <c r="D22">
-        <v>0.2045655470890715</v>
+        <v>0.004617659166852306</v>
       </c>
       <c r="E22">
-        <v>0.1439657936003513</v>
+        <v>2.877841751892618</v>
       </c>
       <c r="F22">
-        <v>6.897321193435573</v>
+        <v>1.920494058677306</v>
       </c>
       <c r="G22">
-        <v>0.0005751849864834568</v>
+        <v>1.920825455077591</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9214406541481424</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.322677833315808</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>44.37430940440748</v>
+        <v>10.18860487156775</v>
       </c>
       <c r="L22">
-        <v>0.08743271537749564</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.26713760300629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4933007900114603</v>
+        <v>0.2681755637416927</v>
       </c>
       <c r="D23">
-        <v>0.1784601405581974</v>
+        <v>0.00456498883282741</v>
       </c>
       <c r="E23">
-        <v>0.1370866925838001</v>
+        <v>2.743888701006512</v>
       </c>
       <c r="F23">
-        <v>6.143708003444289</v>
+        <v>1.835158877522645</v>
       </c>
       <c r="G23">
-        <v>0.0005959382297833187</v>
+        <v>1.830919578958543</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8845368305947829</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2971108518288901</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>41.70937210935807</v>
+        <v>9.78089349883976</v>
       </c>
       <c r="L23">
-        <v>0.08400498205858042</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.651498012538724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4015982044342365</v>
+        <v>0.2248535319954215</v>
       </c>
       <c r="D24">
-        <v>0.1116355921429175</v>
+        <v>0.004783670914230598</v>
       </c>
       <c r="E24">
-        <v>0.1158995351376326</v>
+        <v>2.262433975285248</v>
       </c>
       <c r="F24">
-        <v>4.243847819529151</v>
+        <v>1.533049879616158</v>
       </c>
       <c r="G24">
-        <v>0.0006604476965653332</v>
+        <v>1.514211070776923</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7562648919309538</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.230320782111832</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>33.37645953196306</v>
+        <v>8.271114984901374</v>
       </c>
       <c r="L24">
-        <v>0.07325528826178385</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.115079751154028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3259520729321821</v>
+        <v>0.1802992139901818</v>
       </c>
       <c r="D25">
-        <v>0.06806796736443133</v>
+        <v>0.005691257554712337</v>
       </c>
       <c r="E25">
-        <v>0.09771925709062046</v>
+        <v>1.783438838883697</v>
       </c>
       <c r="F25">
-        <v>3.070477224301698</v>
+        <v>1.242241568397276</v>
       </c>
       <c r="G25">
-        <v>0.0007177625089932335</v>
+        <v>1.211986163473171</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6371902856165548</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1860983382255128</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>26.05100962573607</v>
+        <v>6.696862708502351</v>
       </c>
       <c r="L25">
-        <v>0.06378775324515473</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.185536684129431</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1488015975625814</v>
+        <v>0.04941422446394483</v>
       </c>
       <c r="D2">
-        <v>0.006767968108105649</v>
+        <v>0.01396578115299896</v>
       </c>
       <c r="E2">
-        <v>1.453840307091284</v>
+        <v>0.4181095735075786</v>
       </c>
       <c r="F2">
-        <v>1.050192062507307</v>
+        <v>0.8541194379906329</v>
       </c>
       <c r="G2">
-        <v>1.014103151336926</v>
+        <v>0.7137494338910955</v>
       </c>
       <c r="H2">
-        <v>0.5618496060064615</v>
+        <v>0.7440699538300066</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.56873652521989</v>
+        <v>1.815162008128652</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.128041776272326</v>
+        <v>0.0438473038125835</v>
       </c>
       <c r="D3">
-        <v>0.007688774420701705</v>
+        <v>0.01430705402919941</v>
       </c>
       <c r="E3">
-        <v>1.240425938998669</v>
+        <v>0.3644670215709738</v>
       </c>
       <c r="F3">
-        <v>0.9305668032415326</v>
+        <v>0.8381558220722667</v>
       </c>
       <c r="G3">
-        <v>0.8916783875760643</v>
+        <v>0.6968537578041207</v>
       </c>
       <c r="H3">
-        <v>0.5167845357483856</v>
+        <v>0.7439463256324643</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.817230804780593</v>
+        <v>1.597421177966396</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1155199905290942</v>
+        <v>0.04044776810401629</v>
       </c>
       <c r="D4">
-        <v>0.008331602423833573</v>
+        <v>0.01453142143158992</v>
       </c>
       <c r="E4">
-        <v>1.113106710876835</v>
+        <v>0.3316615277020674</v>
       </c>
       <c r="F4">
-        <v>0.8614073084886371</v>
+        <v>0.8293163305418432</v>
       </c>
       <c r="G4">
-        <v>0.8212458181493645</v>
+        <v>0.6874178380439844</v>
       </c>
       <c r="H4">
-        <v>0.4915985619667964</v>
+        <v>0.7445721242476537</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.360488393537992</v>
+        <v>1.46373772809585</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1104652679225779</v>
+        <v>0.03906697724346486</v>
       </c>
       <c r="D5">
-        <v>0.008610880988793923</v>
+        <v>0.0146265512858097</v>
       </c>
       <c r="E5">
-        <v>1.062003767837311</v>
+        <v>0.3183231727715139</v>
       </c>
       <c r="F5">
-        <v>0.8341837815321043</v>
+        <v>0.8259536445128788</v>
       </c>
       <c r="G5">
-        <v>0.7935994094751777</v>
+        <v>0.6838055197740545</v>
       </c>
       <c r="H5">
-        <v>0.481897226666419</v>
+        <v>0.7450023449477072</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.175312233908471</v>
+        <v>1.409262595861151</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1096286004161016</v>
+        <v>0.03883796906031023</v>
       </c>
       <c r="D6">
-        <v>0.008658243520583753</v>
+        <v>0.01464257005850378</v>
       </c>
       <c r="E6">
-        <v>1.053561146130193</v>
+        <v>0.316110087367079</v>
       </c>
       <c r="F6">
-        <v>0.8297180178131072</v>
+        <v>0.8254096645835887</v>
       </c>
       <c r="G6">
-        <v>0.7890687784342418</v>
+        <v>0.6832196760267522</v>
       </c>
       <c r="H6">
-        <v>0.4803185696792696</v>
+        <v>0.7450843282223616</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.144615033275613</v>
+        <v>1.400217143781617</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1154516370829128</v>
+        <v>0.04042912802262322</v>
       </c>
       <c r="D7">
-        <v>0.008335301380109073</v>
+        <v>0.01453268945055086</v>
       </c>
       <c r="E7">
-        <v>1.112414548482718</v>
+        <v>0.331481523621008</v>
       </c>
       <c r="F7">
-        <v>0.8610364267302941</v>
+        <v>0.8292700138362363</v>
       </c>
       <c r="G7">
-        <v>0.8208688650776708</v>
+        <v>0.6873681820376447</v>
       </c>
       <c r="H7">
-        <v>0.4914655283226779</v>
+        <v>0.7445772186314485</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.357987480599661</v>
+        <v>1.463003050226575</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1415915476473373</v>
+        <v>0.0474908182388134</v>
       </c>
       <c r="D8">
-        <v>0.007067996696463297</v>
+        <v>0.01408035715871137</v>
       </c>
       <c r="E8">
-        <v>1.379384444915488</v>
+        <v>0.3995846383952539</v>
       </c>
       <c r="F8">
-        <v>1.00797892127224</v>
+        <v>0.8484139667033475</v>
       </c>
       <c r="G8">
-        <v>0.9708218793220311</v>
+        <v>0.7077272898518601</v>
       </c>
       <c r="H8">
-        <v>0.5457559072929001</v>
+        <v>0.7438809324301161</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.308499832403243</v>
+        <v>1.740082355985237</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1950704250730553</v>
+        <v>0.06149248972270982</v>
       </c>
       <c r="D9">
-        <v>0.005312306669033262</v>
+        <v>0.0133123349444908</v>
       </c>
       <c r="E9">
-        <v>1.940527928384867</v>
+        <v>0.5343119085064529</v>
       </c>
       <c r="F9">
-        <v>1.336290151046967</v>
+        <v>0.8937054838520169</v>
       </c>
       <c r="G9">
-        <v>1.309412964381465</v>
+        <v>0.7552330979233659</v>
       </c>
       <c r="H9">
-        <v>0.6751316021698983</v>
+        <v>0.7481408311370501</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.221401455440684</v>
+        <v>2.283576567981072</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2364106537496156</v>
+        <v>0.07188307377042236</v>
       </c>
       <c r="D10">
-        <v>0.00466191448188269</v>
+        <v>0.01282258809499481</v>
       </c>
       <c r="E10">
-        <v>2.389289583514056</v>
+        <v>0.6342122584121199</v>
       </c>
       <c r="F10">
-        <v>1.611850356369814</v>
+        <v>0.9318706771086056</v>
       </c>
       <c r="G10">
-        <v>1.596569718819637</v>
+        <v>0.7949537421017396</v>
       </c>
       <c r="H10">
-        <v>0.7893313585160513</v>
+        <v>0.7547816025657994</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.675781188419478</v>
+        <v>2.683099603312371</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2558488640350021</v>
+        <v>0.07663472363594792</v>
       </c>
       <c r="D11">
-        <v>0.004561268984190292</v>
+        <v>0.01261642600701407</v>
       </c>
       <c r="E11">
-        <v>2.605222462860553</v>
+        <v>0.6799026171229912</v>
       </c>
       <c r="F11">
-        <v>1.74735060841995</v>
+        <v>0.950330828239359</v>
       </c>
       <c r="G11">
-        <v>1.738606758551754</v>
+        <v>0.8141127874029337</v>
       </c>
       <c r="H11">
-        <v>0.8468531958776282</v>
+        <v>0.758582955027407</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.35324561037487</v>
+        <v>2.86493305556354</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.263319159551628</v>
+        <v>0.07843779455116362</v>
       </c>
       <c r="D12">
-        <v>0.004557264326383148</v>
+        <v>0.01254078891767563</v>
       </c>
       <c r="E12">
-        <v>2.689093468656736</v>
+        <v>0.6972431061917348</v>
       </c>
       <c r="F12">
-        <v>1.800392647897382</v>
+        <v>0.9574820664665964</v>
       </c>
       <c r="G12">
-        <v>1.794345335375965</v>
+        <v>0.8215279911039204</v>
       </c>
       <c r="H12">
-        <v>0.8695803352523797</v>
+        <v>0.7601361028348208</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.61258864182571</v>
+        <v>2.933803295394114</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.26170510016631</v>
+        <v>0.07804930306535596</v>
       </c>
       <c r="D13">
-        <v>0.004556499218374199</v>
+        <v>0.01255696987882615</v>
       </c>
       <c r="E13">
-        <v>2.67092942967372</v>
+        <v>0.6935067545089737</v>
       </c>
       <c r="F13">
-        <v>1.788887242056234</v>
+        <v>0.95593472374307</v>
       </c>
       <c r="G13">
-        <v>1.782248624401433</v>
+        <v>0.8199238204664425</v>
       </c>
       <c r="H13">
-        <v>0.8646410428692661</v>
+        <v>0.7597965266952542</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.556600550477299</v>
+        <v>2.918970221198492</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2564611384993469</v>
+        <v>0.07678298791140037</v>
       </c>
       <c r="D14">
-        <v>0.004560216586003918</v>
+        <v>0.01261015431531476</v>
       </c>
       <c r="E14">
-        <v>2.612077810049726</v>
+        <v>0.6813284381240834</v>
       </c>
       <c r="F14">
-        <v>1.751677982002761</v>
+        <v>0.950915926507264</v>
       </c>
       <c r="G14">
-        <v>1.743151288399645</v>
+        <v>0.8147196128939527</v>
       </c>
       <c r="H14">
-        <v>0.8487031176050266</v>
+        <v>0.7587084472908145</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.374522442423029</v>
+        <v>2.870598766937519</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.253263919655879</v>
+        <v>0.0760078225384575</v>
       </c>
       <c r="D15">
-        <v>0.004567137247226682</v>
+        <v>0.01264304929070548</v>
       </c>
       <c r="E15">
-        <v>2.576316791777501</v>
+        <v>0.6738739855137936</v>
       </c>
       <c r="F15">
-        <v>1.729120577244643</v>
+        <v>0.9478627901375631</v>
       </c>
       <c r="G15">
-        <v>1.71946750487362</v>
+        <v>0.8115528340603362</v>
       </c>
       <c r="H15">
-        <v>0.8390684387669012</v>
+        <v>0.758056811679154</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.26337629758126</v>
+        <v>2.840971695168321</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.235154561253438</v>
+        <v>0.07157305571345773</v>
       </c>
       <c r="D16">
-        <v>0.004672906878742111</v>
+        <v>0.01283639931576275</v>
       </c>
       <c r="E16">
-        <v>2.375447924011155</v>
+        <v>0.6312314991648833</v>
       </c>
       <c r="F16">
-        <v>1.603221438118055</v>
+        <v>0.9306866084641996</v>
       </c>
       <c r="G16">
-        <v>1.587542218858431</v>
+        <v>0.7937238719233619</v>
       </c>
       <c r="H16">
-        <v>0.7856959919206474</v>
+        <v>0.7545490016616441</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.631868954055335</v>
+        <v>2.671218233804325</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.224219275055745</v>
+        <v>0.06885895203296855</v>
       </c>
       <c r="D17">
-        <v>0.00479169409089053</v>
+        <v>0.01295930043042048</v>
       </c>
       <c r="E17">
-        <v>2.255504272875285</v>
+        <v>0.6051368309624365</v>
       </c>
       <c r="F17">
-        <v>1.528764084531076</v>
+        <v>0.9204329421700521</v>
       </c>
       <c r="G17">
-        <v>1.509737092437575</v>
+        <v>0.7830679169987036</v>
       </c>
       <c r="H17">
-        <v>0.7544752106033741</v>
+        <v>0.7525979757915877</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.248865032265485</v>
+        <v>2.567103405680371</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2179878343148971</v>
+        <v>0.06730020850478979</v>
       </c>
       <c r="D18">
-        <v>0.004877963764259974</v>
+        <v>0.01303155227081909</v>
       </c>
       <c r="E18">
-        <v>2.187596729182815</v>
+        <v>0.5901507461954054</v>
       </c>
       <c r="F18">
-        <v>1.486874415035459</v>
+        <v>0.9146385421048535</v>
       </c>
       <c r="G18">
-        <v>1.466037822594672</v>
+        <v>0.7770412797225674</v>
       </c>
       <c r="H18">
-        <v>0.7370323386852817</v>
+        <v>0.7515491686880296</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.030028092271891</v>
+        <v>2.507227556936925</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2158874628639751</v>
+        <v>0.0667728418913498</v>
       </c>
       <c r="D19">
-        <v>0.004910092139436273</v>
+        <v>0.01305628261321701</v>
       </c>
       <c r="E19">
-        <v>2.164779000144748</v>
+        <v>0.5850805456990429</v>
       </c>
       <c r="F19">
-        <v>1.472844564054114</v>
+        <v>0.9126943040794941</v>
       </c>
       <c r="G19">
-        <v>1.45141409547827</v>
+        <v>0.7750182469764866</v>
       </c>
       <c r="H19">
-        <v>0.7312108758898148</v>
+        <v>0.7512066188120343</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.956169422005757</v>
+        <v>2.486956006867388</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2253772019508347</v>
+        <v>0.06914763010942693</v>
       </c>
       <c r="D20">
-        <v>0.004777151985640771</v>
+        <v>0.01294605540508798</v>
       </c>
       <c r="E20">
-        <v>2.26815793694054</v>
+        <v>0.6079122615375496</v>
       </c>
       <c r="F20">
-        <v>1.536591481896551</v>
+        <v>0.9215137575612147</v>
       </c>
       <c r="G20">
-        <v>1.517908601515785</v>
+        <v>0.7841916407862186</v>
       </c>
       <c r="H20">
-        <v>0.75774450803695</v>
+        <v>0.7527980618409345</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.289482191804211</v>
+        <v>2.578185745468375</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2579982829265361</v>
+        <v>0.07715483315915606</v>
       </c>
       <c r="D21">
-        <v>0.004558144248237639</v>
+        <v>0.01259446641569184</v>
       </c>
       <c r="E21">
-        <v>2.62930323023626</v>
+        <v>0.6849044323611508</v>
       </c>
       <c r="F21">
-        <v>1.762557850126356</v>
+        <v>0.9523856829389388</v>
       </c>
       <c r="G21">
-        <v>1.754579370187855</v>
+        <v>0.8162438431045587</v>
       </c>
       <c r="H21">
-        <v>0.8533575527813753</v>
+        <v>0.7590249464373073</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.427922531971888</v>
+        <v>2.884806249797293</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2799671075192265</v>
+        <v>0.08240977804257454</v>
       </c>
       <c r="D22">
-        <v>0.004617659166852306</v>
+        <v>0.01237887869179133</v>
       </c>
       <c r="E22">
-        <v>2.877841751892618</v>
+        <v>0.7354494868061465</v>
       </c>
       <c r="F22">
-        <v>1.920494058677306</v>
+        <v>0.9735007378138363</v>
       </c>
       <c r="G22">
-        <v>1.920825455077591</v>
+        <v>0.8381265142589314</v>
       </c>
       <c r="H22">
-        <v>0.9214406541481424</v>
+        <v>0.7637577385979739</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.18860487156775</v>
+        <v>3.085281863944545</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2681755637416927</v>
+        <v>0.07960307552674806</v>
       </c>
       <c r="D23">
-        <v>0.00456498883282741</v>
+        <v>0.01249262892457281</v>
       </c>
       <c r="E23">
-        <v>2.743888701006512</v>
+        <v>0.7084508395518299</v>
       </c>
       <c r="F23">
-        <v>1.835158877522645</v>
+        <v>0.9621444330447275</v>
       </c>
       <c r="G23">
-        <v>1.830919578958543</v>
+        <v>0.8263606768373677</v>
       </c>
       <c r="H23">
-        <v>0.8845368305947829</v>
+        <v>0.7611706012031334</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.78089349883976</v>
+        <v>2.978276399807271</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2248535319954215</v>
+        <v>0.0690171136829747</v>
       </c>
       <c r="D24">
-        <v>0.004783670914230598</v>
+        <v>0.01295203851863747</v>
       </c>
       <c r="E24">
-        <v>2.262433975285248</v>
+        <v>0.606657439512901</v>
       </c>
       <c r="F24">
-        <v>1.533049879616158</v>
+        <v>0.9210248078835122</v>
       </c>
       <c r="G24">
-        <v>1.514211070776923</v>
+        <v>0.7836832952427528</v>
       </c>
       <c r="H24">
-        <v>0.7562648919309538</v>
+        <v>0.7527073760924452</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.271114984901374</v>
+        <v>2.573175478438884</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1802992139901818</v>
+        <v>0.0576872010046543</v>
       </c>
       <c r="D25">
-        <v>0.005691257554712337</v>
+        <v>0.01350716756799564</v>
       </c>
       <c r="E25">
-        <v>1.783438838883697</v>
+        <v>0.4977182546596026</v>
       </c>
       <c r="F25">
-        <v>1.242241568397276</v>
+        <v>0.8806062676985107</v>
       </c>
       <c r="G25">
-        <v>1.211986163473171</v>
+        <v>0.741549675448141</v>
       </c>
       <c r="H25">
-        <v>0.6371902856165548</v>
+        <v>0.7463777939548208</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.696862708502351</v>
+        <v>2.136518613275427</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04941422446394483</v>
+        <v>0.1488015975628088</v>
       </c>
       <c r="D2">
-        <v>0.01396578115299896</v>
+        <v>0.006767968108082556</v>
       </c>
       <c r="E2">
-        <v>0.4181095735075786</v>
+        <v>1.453840307091269</v>
       </c>
       <c r="F2">
-        <v>0.8541194379906329</v>
+        <v>1.050192062507321</v>
       </c>
       <c r="G2">
-        <v>0.7137494338910955</v>
+        <v>1.014103151337025</v>
       </c>
       <c r="H2">
-        <v>0.7440699538300066</v>
+        <v>0.5618496060064757</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.815162008128652</v>
+        <v>5.568736525219947</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0438473038125835</v>
+        <v>0.1280417762721697</v>
       </c>
       <c r="D3">
-        <v>0.01430705402919941</v>
+        <v>0.00768877442082605</v>
       </c>
       <c r="E3">
-        <v>0.3644670215709738</v>
+        <v>1.240425938998655</v>
       </c>
       <c r="F3">
-        <v>0.8381558220722667</v>
+        <v>0.9305668032415468</v>
       </c>
       <c r="G3">
-        <v>0.6968537578041207</v>
+        <v>0.8916783875760643</v>
       </c>
       <c r="H3">
-        <v>0.7439463256324643</v>
+        <v>0.5167845357483998</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.597421177966396</v>
+        <v>4.81723080478065</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04044776810401629</v>
+        <v>0.1155199905291084</v>
       </c>
       <c r="D4">
-        <v>0.01453142143158992</v>
+        <v>0.008331602423837126</v>
       </c>
       <c r="E4">
-        <v>0.3316615277020674</v>
+        <v>1.113106710876835</v>
       </c>
       <c r="F4">
-        <v>0.8293163305418432</v>
+        <v>0.8614073084886229</v>
       </c>
       <c r="G4">
-        <v>0.6874178380439844</v>
+        <v>0.8212458181493787</v>
       </c>
       <c r="H4">
-        <v>0.7445721242476537</v>
+        <v>0.4915985619668106</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.46373772809585</v>
+        <v>4.360488393537878</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03906697724346486</v>
+        <v>0.1104652679225779</v>
       </c>
       <c r="D5">
-        <v>0.0146265512858097</v>
+        <v>0.008610880988799252</v>
       </c>
       <c r="E5">
-        <v>0.3183231727715139</v>
+        <v>1.062003767837297</v>
       </c>
       <c r="F5">
-        <v>0.8259536445128788</v>
+        <v>0.8341837815320901</v>
       </c>
       <c r="G5">
-        <v>0.6838055197740545</v>
+        <v>0.7935994094751493</v>
       </c>
       <c r="H5">
-        <v>0.7450023449477072</v>
+        <v>0.4818972266664048</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.409262595861151</v>
+        <v>4.175312233908471</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03883796906031023</v>
+        <v>0.1096286004162295</v>
       </c>
       <c r="D6">
-        <v>0.01464257005850378</v>
+        <v>0.008658243520649478</v>
       </c>
       <c r="E6">
-        <v>0.316110087367079</v>
+        <v>1.053561146130193</v>
       </c>
       <c r="F6">
-        <v>0.8254096645835887</v>
+        <v>0.8297180178131072</v>
       </c>
       <c r="G6">
-        <v>0.6832196760267522</v>
+        <v>0.7890687784342703</v>
       </c>
       <c r="H6">
-        <v>0.7450843282223616</v>
+        <v>0.4803185696793832</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.400217143781617</v>
+        <v>4.144615033275443</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04042912802262322</v>
+        <v>0.1154516370830407</v>
       </c>
       <c r="D7">
-        <v>0.01453268945055086</v>
+        <v>0.008335301380107296</v>
       </c>
       <c r="E7">
-        <v>0.331481523621008</v>
+        <v>1.112414548482718</v>
       </c>
       <c r="F7">
-        <v>0.8292700138362363</v>
+        <v>0.8610364267302799</v>
       </c>
       <c r="G7">
-        <v>0.6873681820376447</v>
+        <v>0.8208688650776992</v>
       </c>
       <c r="H7">
-        <v>0.7445772186314485</v>
+        <v>0.4914655283226779</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.463003050226575</v>
+        <v>4.357987480599718</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0474908182388134</v>
+        <v>0.1415915476474652</v>
       </c>
       <c r="D8">
-        <v>0.01408035715871137</v>
+        <v>0.00706799669646152</v>
       </c>
       <c r="E8">
-        <v>0.3995846383952539</v>
+        <v>1.379384444915473</v>
       </c>
       <c r="F8">
-        <v>0.8484139667033475</v>
+        <v>1.007978921272255</v>
       </c>
       <c r="G8">
-        <v>0.7077272898518601</v>
+        <v>0.970821879322088</v>
       </c>
       <c r="H8">
-        <v>0.7438809324301161</v>
+        <v>0.5457559072928007</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.740082355985237</v>
+        <v>5.308499832403299</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06149248972270982</v>
+        <v>0.1950704250732116</v>
       </c>
       <c r="D9">
-        <v>0.0133123349444908</v>
+        <v>0.005312306669106093</v>
       </c>
       <c r="E9">
-        <v>0.5343119085064529</v>
+        <v>1.940527928384881</v>
       </c>
       <c r="F9">
-        <v>0.8937054838520169</v>
+        <v>1.336290151046967</v>
       </c>
       <c r="G9">
-        <v>0.7552330979233659</v>
+        <v>1.309412964381465</v>
       </c>
       <c r="H9">
-        <v>0.7481408311370501</v>
+        <v>0.6751316021699267</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.283576567981072</v>
+        <v>7.221401455440798</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07188307377042236</v>
+        <v>0.236410653749644</v>
       </c>
       <c r="D10">
-        <v>0.01282258809499481</v>
+        <v>0.004661914481868479</v>
       </c>
       <c r="E10">
-        <v>0.6342122584121199</v>
+        <v>2.389289583514</v>
       </c>
       <c r="F10">
-        <v>0.9318706771086056</v>
+        <v>1.611850356369843</v>
       </c>
       <c r="G10">
-        <v>0.7949537421017396</v>
+        <v>1.596569718819723</v>
       </c>
       <c r="H10">
-        <v>0.7547816025657994</v>
+        <v>0.7893313585160513</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.683099603312371</v>
+        <v>8.675781188419364</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07663472363594792</v>
+        <v>0.2558488640350305</v>
       </c>
       <c r="D11">
-        <v>0.01261642600701407</v>
+        <v>0.004561268984190292</v>
       </c>
       <c r="E11">
-        <v>0.6799026171229912</v>
+        <v>2.605222462860581</v>
       </c>
       <c r="F11">
-        <v>0.950330828239359</v>
+        <v>1.747350608419922</v>
       </c>
       <c r="G11">
-        <v>0.8141127874029337</v>
+        <v>1.738606758551697</v>
       </c>
       <c r="H11">
-        <v>0.758582955027407</v>
+        <v>0.8468531958776282</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.86493305556354</v>
+        <v>9.353245610375097</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07843779455116362</v>
+        <v>0.2633191595520543</v>
       </c>
       <c r="D12">
-        <v>0.01254078891767563</v>
+        <v>0.004557264326482624</v>
       </c>
       <c r="E12">
-        <v>0.6972431061917348</v>
+        <v>2.689093468656708</v>
       </c>
       <c r="F12">
-        <v>0.9574820664665964</v>
+        <v>1.800392647897382</v>
       </c>
       <c r="G12">
-        <v>0.8215279911039204</v>
+        <v>1.794345335375965</v>
       </c>
       <c r="H12">
-        <v>0.7601361028348208</v>
+        <v>0.8695803352524933</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.933803295394114</v>
+        <v>9.612588641825766</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07804930306535596</v>
+        <v>0.26170510016631</v>
       </c>
       <c r="D13">
-        <v>0.01255696987882615</v>
+        <v>0.00455649921848611</v>
       </c>
       <c r="E13">
-        <v>0.6935067545089737</v>
+        <v>2.670929429673734</v>
       </c>
       <c r="F13">
-        <v>0.95593472374307</v>
+        <v>1.788887242056276</v>
       </c>
       <c r="G13">
-        <v>0.8199238204664425</v>
+        <v>1.782248624401433</v>
       </c>
       <c r="H13">
-        <v>0.7597965266952542</v>
+        <v>0.8646410428692661</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.918970221198492</v>
+        <v>9.556600550477356</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07678298791140037</v>
+        <v>0.2564611384989632</v>
       </c>
       <c r="D14">
-        <v>0.01261015431531476</v>
+        <v>0.004560216586021681</v>
       </c>
       <c r="E14">
-        <v>0.6813284381240834</v>
+        <v>2.612077810049726</v>
       </c>
       <c r="F14">
-        <v>0.950915926507264</v>
+        <v>1.751677982002761</v>
       </c>
       <c r="G14">
-        <v>0.8147196128939527</v>
+        <v>1.743151288399702</v>
       </c>
       <c r="H14">
-        <v>0.7587084472908145</v>
+        <v>0.8487031176049129</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.870598766937519</v>
+        <v>9.374522442423142</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0760078225384575</v>
+        <v>0.2532639196559927</v>
       </c>
       <c r="D15">
-        <v>0.01264304929070548</v>
+        <v>0.0045671372473155</v>
       </c>
       <c r="E15">
-        <v>0.6738739855137936</v>
+        <v>2.576316791777529</v>
       </c>
       <c r="F15">
-        <v>0.9478627901375631</v>
+        <v>1.729120577244629</v>
       </c>
       <c r="G15">
-        <v>0.8115528340603362</v>
+        <v>1.719467504873592</v>
       </c>
       <c r="H15">
-        <v>0.758056811679154</v>
+        <v>0.8390684387669012</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.840971695168321</v>
+        <v>9.26337629758126</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07157305571345773</v>
+        <v>0.2351545612531396</v>
       </c>
       <c r="D16">
-        <v>0.01283639931576275</v>
+        <v>0.004672906878743888</v>
       </c>
       <c r="E16">
-        <v>0.6312314991648833</v>
+        <v>2.375447924011212</v>
       </c>
       <c r="F16">
-        <v>0.9306866084641996</v>
+        <v>1.603221438118055</v>
       </c>
       <c r="G16">
-        <v>0.7937238719233619</v>
+        <v>1.587542218858545</v>
       </c>
       <c r="H16">
-        <v>0.7545490016616441</v>
+        <v>0.7856959919207611</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.671218233804325</v>
+        <v>8.631868954055335</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06885895203296855</v>
+        <v>0.2242192750560292</v>
       </c>
       <c r="D17">
-        <v>0.01295930043042048</v>
+        <v>0.004791694091078824</v>
       </c>
       <c r="E17">
-        <v>0.6051368309624365</v>
+        <v>2.255504272875314</v>
       </c>
       <c r="F17">
-        <v>0.9204329421700521</v>
+        <v>1.52876408453109</v>
       </c>
       <c r="G17">
-        <v>0.7830679169987036</v>
+        <v>1.509737092437547</v>
       </c>
       <c r="H17">
-        <v>0.7525979757915877</v>
+        <v>0.754475210603232</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.567103405680371</v>
+        <v>8.248865032265314</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06730020850478979</v>
+        <v>0.2179878343150108</v>
       </c>
       <c r="D18">
-        <v>0.01303155227081909</v>
+        <v>0.004877963764357673</v>
       </c>
       <c r="E18">
-        <v>0.5901507461954054</v>
+        <v>2.187596729182857</v>
       </c>
       <c r="F18">
-        <v>0.9146385421048535</v>
+        <v>1.486874415035487</v>
       </c>
       <c r="G18">
-        <v>0.7770412797225674</v>
+        <v>1.466037822594672</v>
       </c>
       <c r="H18">
-        <v>0.7515491686880296</v>
+        <v>0.7370323386852817</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.507227556936925</v>
+        <v>8.030028092271948</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0667728418913498</v>
+        <v>0.2158874628642309</v>
       </c>
       <c r="D19">
-        <v>0.01305628261321701</v>
+        <v>0.004910092139237321</v>
       </c>
       <c r="E19">
-        <v>0.5850805456990429</v>
+        <v>2.16477900014479</v>
       </c>
       <c r="F19">
-        <v>0.9126943040794941</v>
+        <v>1.472844564054114</v>
       </c>
       <c r="G19">
-        <v>0.7750182469764866</v>
+        <v>1.451414095478299</v>
       </c>
       <c r="H19">
-        <v>0.7512066188120343</v>
+        <v>0.7312108758898432</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.486956006867388</v>
+        <v>7.956169422005985</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06914763010942693</v>
+        <v>0.2253772019511189</v>
       </c>
       <c r="D20">
-        <v>0.01294605540508798</v>
+        <v>0.004777151985537742</v>
       </c>
       <c r="E20">
-        <v>0.6079122615375496</v>
+        <v>2.268157936940611</v>
       </c>
       <c r="F20">
-        <v>0.9215137575612147</v>
+        <v>1.536591481896551</v>
       </c>
       <c r="G20">
-        <v>0.7841916407862186</v>
+        <v>1.517908601515813</v>
       </c>
       <c r="H20">
-        <v>0.7527980618409345</v>
+        <v>0.7577445080368364</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.578185745468375</v>
+        <v>8.289482191804268</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07715483315915606</v>
+        <v>0.2579982829265361</v>
       </c>
       <c r="D21">
-        <v>0.01259446641569184</v>
+        <v>0.004558144248218099</v>
       </c>
       <c r="E21">
-        <v>0.6849044323611508</v>
+        <v>2.629303230236246</v>
       </c>
       <c r="F21">
-        <v>0.9523856829389388</v>
+        <v>1.76255785012637</v>
       </c>
       <c r="G21">
-        <v>0.8162438431045587</v>
+        <v>1.75457937018777</v>
       </c>
       <c r="H21">
-        <v>0.7590249464373073</v>
+        <v>0.8533575527814605</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.884806249797293</v>
+        <v>9.427922531971888</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08240977804257454</v>
+        <v>0.2799671075189138</v>
       </c>
       <c r="D22">
-        <v>0.01237887869179133</v>
+        <v>0.004617659166946453</v>
       </c>
       <c r="E22">
-        <v>0.7354494868061465</v>
+        <v>2.877841751892646</v>
       </c>
       <c r="F22">
-        <v>0.9735007378138363</v>
+        <v>1.92049405867732</v>
       </c>
       <c r="G22">
-        <v>0.8381265142589314</v>
+        <v>1.920825455077562</v>
       </c>
       <c r="H22">
-        <v>0.7637577385979739</v>
+        <v>0.9214406541480571</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.085281863944545</v>
+        <v>10.18860487156775</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07960307552674806</v>
+        <v>0.2681755637418775</v>
       </c>
       <c r="D23">
-        <v>0.01249262892457281</v>
+        <v>0.004564988832713723</v>
       </c>
       <c r="E23">
-        <v>0.7084508395518299</v>
+        <v>2.743888701006526</v>
       </c>
       <c r="F23">
-        <v>0.9621444330447275</v>
+        <v>1.835158877522659</v>
       </c>
       <c r="G23">
-        <v>0.8263606768373677</v>
+        <v>1.830919578958543</v>
       </c>
       <c r="H23">
-        <v>0.7611706012031334</v>
+        <v>0.8845368305948682</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.978276399807271</v>
+        <v>9.78089349883976</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0690171136829747</v>
+        <v>0.224853531995123</v>
       </c>
       <c r="D24">
-        <v>0.01295203851863747</v>
+        <v>0.004783670914315863</v>
       </c>
       <c r="E24">
-        <v>0.606657439512901</v>
+        <v>2.262433975285234</v>
       </c>
       <c r="F24">
-        <v>0.9210248078835122</v>
+        <v>1.533049879616158</v>
       </c>
       <c r="G24">
-        <v>0.7836832952427528</v>
+        <v>1.514211070776895</v>
       </c>
       <c r="H24">
-        <v>0.7527073760924452</v>
+        <v>0.7562648919309538</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.573175478438884</v>
+        <v>8.271114984901487</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0576872010046543</v>
+        <v>0.1802992139901534</v>
       </c>
       <c r="D25">
-        <v>0.01350716756799564</v>
+        <v>0.005691257554712337</v>
       </c>
       <c r="E25">
-        <v>0.4977182546596026</v>
+        <v>1.783438838883669</v>
       </c>
       <c r="F25">
-        <v>0.8806062676985107</v>
+        <v>1.24224156839729</v>
       </c>
       <c r="G25">
-        <v>0.741549675448141</v>
+        <v>1.211986163473057</v>
       </c>
       <c r="H25">
-        <v>0.7463777939548208</v>
+        <v>0.6371902856164411</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.136518613275427</v>
+        <v>6.696862708502351</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1488015975628088</v>
+        <v>0.244149024756112</v>
       </c>
       <c r="D2">
-        <v>0.006767968108082556</v>
+        <v>0.1887269755622754</v>
       </c>
       <c r="E2">
-        <v>1.453840307091269</v>
+        <v>0.1163450234085914</v>
       </c>
       <c r="F2">
-        <v>1.050192062507321</v>
+        <v>0.5624492341501579</v>
       </c>
       <c r="G2">
-        <v>1.014103151337025</v>
+        <v>0.2937836930686046</v>
       </c>
       <c r="H2">
-        <v>0.5618496060064757</v>
+        <v>0.001508086590612856</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0007090346462783614</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2892038055577189</v>
       </c>
       <c r="K2">
-        <v>5.568736525219947</v>
+        <v>0.4025183070426976</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1076360502726423</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.10224426998127</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1135590392008581</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.17564645767348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1280417762721697</v>
+        <v>0.2200698476095369</v>
       </c>
       <c r="D3">
-        <v>0.00768877442082605</v>
+        <v>0.1686469868152471</v>
       </c>
       <c r="E3">
-        <v>1.240425938998655</v>
+        <v>0.1061034927186242</v>
       </c>
       <c r="F3">
-        <v>0.9305668032415468</v>
+        <v>0.5531601939405846</v>
       </c>
       <c r="G3">
-        <v>0.8916783875760643</v>
+        <v>0.294701902692033</v>
       </c>
       <c r="H3">
-        <v>0.5167845357483998</v>
+        <v>0.002724662629524865</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001338958827102221</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2949943071234244</v>
       </c>
       <c r="K3">
-        <v>4.81723080478065</v>
+        <v>0.3969037440215111</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1000219048033451</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.448523685014948</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.104673412200448</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.189395157697334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1155199905291084</v>
+        <v>0.2050520545110857</v>
       </c>
       <c r="D4">
-        <v>0.008331602423837126</v>
+        <v>0.1563328903671959</v>
       </c>
       <c r="E4">
-        <v>1.113106710876835</v>
+        <v>0.09978788780534842</v>
       </c>
       <c r="F4">
-        <v>0.8614073084886229</v>
+        <v>0.5481015094296779</v>
       </c>
       <c r="G4">
-        <v>0.8212458181493787</v>
+        <v>0.2958271117080358</v>
       </c>
       <c r="H4">
-        <v>0.4915985619668106</v>
+        <v>0.003685118816844524</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001973232188790863</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2989150286505406</v>
       </c>
       <c r="K4">
-        <v>4.360488393537878</v>
+        <v>0.3937856237079878</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09529081888004498</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.046347973764796</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09926649532658161</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.199784146957157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1104652679225779</v>
+        <v>0.1983683584378753</v>
       </c>
       <c r="D5">
-        <v>0.008610880988799252</v>
+        <v>0.1513440299985547</v>
       </c>
       <c r="E5">
-        <v>1.062003767837297</v>
+        <v>0.09715740306769405</v>
       </c>
       <c r="F5">
-        <v>0.8341837815320901</v>
+        <v>0.5457790854986229</v>
       </c>
       <c r="G5">
-        <v>0.7935994094751493</v>
+        <v>0.2961143176015995</v>
       </c>
       <c r="H5">
-        <v>0.4818972266664048</v>
+        <v>0.004130858030455042</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002364823849586806</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3004417564818596</v>
       </c>
       <c r="K5">
-        <v>4.175312233908471</v>
+        <v>0.392163731891582</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09326412043932919</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.88221818356584</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09718401449393355</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.203503484233138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1096286004162295</v>
+        <v>0.1966377683508966</v>
       </c>
       <c r="D6">
-        <v>0.008658243520649478</v>
+        <v>0.1505480263954695</v>
       </c>
       <c r="E6">
-        <v>1.053561146130193</v>
+        <v>0.09665959172216176</v>
       </c>
       <c r="F6">
-        <v>0.8297180178131072</v>
+        <v>0.5448934385317443</v>
       </c>
       <c r="G6">
-        <v>0.7890687784342703</v>
+        <v>0.2957960380811784</v>
       </c>
       <c r="H6">
-        <v>0.4803185696793832</v>
+        <v>0.004211612400121689</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00253072659033915</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3005050322518485</v>
       </c>
       <c r="K6">
-        <v>4.144615033275443</v>
+        <v>0.3913730635513808</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09282367668413016</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.85492470921065</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09697327006947631</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.202946305934276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1154516370830407</v>
+        <v>0.2032702986548571</v>
       </c>
       <c r="D7">
-        <v>0.008335301380107296</v>
+        <v>0.1563537580559284</v>
       </c>
       <c r="E7">
-        <v>1.112414548482718</v>
+        <v>0.09958682251950179</v>
       </c>
       <c r="F7">
-        <v>0.8610364267302799</v>
+        <v>0.5466796594639263</v>
       </c>
       <c r="G7">
-        <v>0.8208688650776992</v>
+        <v>0.2948099893838787</v>
       </c>
       <c r="H7">
-        <v>0.4914655283226779</v>
+        <v>0.003700160734362301</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002227626844703678</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2984026435138531</v>
       </c>
       <c r="K7">
-        <v>4.357987480599718</v>
+        <v>0.3923263352757012</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09498186987115176</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.044062086237545</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09960591819107378</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.196552612252148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1415915476474652</v>
+        <v>0.2336372646145293</v>
       </c>
       <c r="D8">
-        <v>0.00706799669646152</v>
+        <v>0.1819167999913134</v>
       </c>
       <c r="E8">
-        <v>1.379384444915473</v>
+        <v>0.1125991018214663</v>
       </c>
       <c r="F8">
-        <v>1.007978921272255</v>
+        <v>0.5572743648559637</v>
       </c>
       <c r="G8">
-        <v>0.970821879322088</v>
+        <v>0.2926348854849365</v>
       </c>
       <c r="H8">
-        <v>0.5457559072928007</v>
+        <v>0.001890086816986214</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001168355737494409</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2904247879768818</v>
       </c>
       <c r="K8">
-        <v>5.308499832403299</v>
+        <v>0.3986121196283179</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1046484486928101</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.876885454465025</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1109741895261891</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.175656647268411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1950704250732116</v>
+        <v>0.2943986054760188</v>
       </c>
       <c r="D9">
-        <v>0.005312306669106093</v>
+        <v>0.2320524660801624</v>
       </c>
       <c r="E9">
-        <v>1.940527928384881</v>
+        <v>0.1382213196185837</v>
       </c>
       <c r="F9">
-        <v>1.336290151046967</v>
+        <v>0.5859562896473136</v>
       </c>
       <c r="G9">
-        <v>1.309412964381465</v>
+        <v>0.2949436481146961</v>
       </c>
       <c r="H9">
-        <v>0.6751316021699267</v>
+        <v>0.0001359780019205559</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00081540944272529</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2787526555578737</v>
       </c>
       <c r="K9">
-        <v>7.221401455440798</v>
+        <v>0.4162832172758826</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1236860046524839</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.505035912591097</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1330396571363579</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.156873862283007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.236410653749644</v>
+        <v>0.3333535613157608</v>
       </c>
       <c r="D10">
-        <v>0.004661914481868479</v>
+        <v>0.266067974872513</v>
       </c>
       <c r="E10">
-        <v>2.389289583514</v>
+        <v>0.1529595143044169</v>
       </c>
       <c r="F10">
-        <v>1.611850356369843</v>
+        <v>0.6019622883832767</v>
       </c>
       <c r="G10">
-        <v>1.596569718819723</v>
+        <v>0.2947252367692528</v>
       </c>
       <c r="H10">
-        <v>0.7893313585160513</v>
+        <v>0.00027232487563289</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002109568221751346</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2695479238063996</v>
       </c>
       <c r="K10">
-        <v>8.675781188419364</v>
+        <v>0.4249301743903544</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.132797956524449</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.699237513658659</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1442023380243924</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.137655372821044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2558488640350305</v>
+        <v>0.3163530249770474</v>
       </c>
       <c r="D11">
-        <v>0.004561268984190292</v>
+        <v>0.2555172240653576</v>
       </c>
       <c r="E11">
-        <v>2.605222462860581</v>
+        <v>0.1273542999246402</v>
       </c>
       <c r="F11">
-        <v>1.747350608419922</v>
+        <v>0.5393226231846242</v>
       </c>
       <c r="G11">
-        <v>1.738606758551697</v>
+        <v>0.2542997131838973</v>
       </c>
       <c r="H11">
-        <v>0.8468531958776282</v>
+        <v>0.01885862197164201</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003105972038364158</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2448592794974616</v>
       </c>
       <c r="K11">
-        <v>9.353245610375097</v>
+        <v>0.3804157199103066</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1022687498252957</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.237378120960443</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1064631801006257</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.000448987781994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2633191595520543</v>
+        <v>0.2969638616563799</v>
       </c>
       <c r="D12">
-        <v>0.004557264326482624</v>
+        <v>0.2394100337762382</v>
       </c>
       <c r="E12">
-        <v>2.689093468656708</v>
+        <v>0.1055333564759486</v>
       </c>
       <c r="F12">
-        <v>1.800392647897382</v>
+        <v>0.4872842807177662</v>
       </c>
       <c r="G12">
-        <v>1.794345335375965</v>
+        <v>0.2235015632213333</v>
       </c>
       <c r="H12">
-        <v>0.8695803352524933</v>
+        <v>0.05750197548399427</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003199391748320402</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2274566238100562</v>
       </c>
       <c r="K12">
-        <v>9.612588641825766</v>
+        <v>0.3448424241082648</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08149501419542204</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.439224556245335</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07844321990824099</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8987751200924663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.26170510016631</v>
+        <v>0.2720782084808349</v>
       </c>
       <c r="D13">
-        <v>0.00455649921848611</v>
+        <v>0.2183401749697822</v>
       </c>
       <c r="E13">
-        <v>2.670929429673734</v>
+        <v>0.08520916572448201</v>
       </c>
       <c r="F13">
-        <v>1.788887242056276</v>
+        <v>0.4381166774727916</v>
       </c>
       <c r="G13">
-        <v>1.782248624401433</v>
+        <v>0.19654348979698</v>
       </c>
       <c r="H13">
-        <v>0.8646410428692661</v>
+        <v>0.1131768536703106</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002908915434042036</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.213696528564526</v>
       </c>
       <c r="K13">
-        <v>9.556600550477356</v>
+        <v>0.3117834111901736</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06660569533907079</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.39175795637658</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05691383580402132</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8127678821209088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2564611384989632</v>
+        <v>0.2519616597108865</v>
       </c>
       <c r="D14">
-        <v>0.004560216586021681</v>
+        <v>0.2015358084828449</v>
       </c>
       <c r="E14">
-        <v>2.612077810049726</v>
+        <v>0.07211050897984528</v>
       </c>
       <c r="F14">
-        <v>1.751677982002761</v>
+        <v>0.4052722019967376</v>
       </c>
       <c r="G14">
-        <v>1.743151288399702</v>
+        <v>0.1795890606196977</v>
       </c>
       <c r="H14">
-        <v>0.8487031176049129</v>
+        <v>0.1624666442768614</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002634531262519779</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2057659383091774</v>
       </c>
       <c r="K14">
-        <v>9.374522442423142</v>
+        <v>0.2898648874557601</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05974240970921851</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.245491007725718</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04582518760008014</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7601408147097857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2532639196559927</v>
+        <v>0.2453256288943351</v>
       </c>
       <c r="D15">
-        <v>0.0045671372473155</v>
+        <v>0.1964381386856928</v>
       </c>
       <c r="E15">
-        <v>2.576316791777529</v>
+        <v>0.06889366181116507</v>
       </c>
       <c r="F15">
-        <v>1.729120577244629</v>
+        <v>0.3972736712474472</v>
       </c>
       <c r="G15">
-        <v>1.719467504873592</v>
+        <v>0.1758076045749846</v>
       </c>
       <c r="H15">
-        <v>0.8390684387669012</v>
+        <v>0.1749537681069029</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002605820943824888</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2043849824152346</v>
       </c>
       <c r="K15">
-        <v>9.26337629758126</v>
+        <v>0.2844908933846888</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05847551797710349</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.15665894604939</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04367656971151845</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7491907629135142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2351545612531396</v>
+        <v>0.2334493595914751</v>
       </c>
       <c r="D16">
-        <v>0.004672906878743888</v>
+        <v>0.1866771567934649</v>
       </c>
       <c r="E16">
-        <v>2.375447924011212</v>
+        <v>0.06718726972433942</v>
       </c>
       <c r="F16">
-        <v>1.603221438118055</v>
+        <v>0.3997145473114472</v>
       </c>
       <c r="G16">
-        <v>1.587542218858545</v>
+        <v>0.1804899277586856</v>
       </c>
       <c r="H16">
-        <v>0.7856959919207611</v>
+        <v>0.1621420466002377</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002141372390910057</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2105313458346671</v>
       </c>
       <c r="K16">
-        <v>8.631868954055335</v>
+        <v>0.2868242535785193</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05790182056125071</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.650542616810299</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04390133149176911</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7717723163593746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2242192750560292</v>
+        <v>0.2347590915496909</v>
       </c>
       <c r="D17">
-        <v>0.004791694091078824</v>
+        <v>0.1880171431307218</v>
       </c>
       <c r="E17">
-        <v>2.255504272875314</v>
+        <v>0.07248179919298892</v>
       </c>
       <c r="F17">
-        <v>1.52876408453109</v>
+        <v>0.4188011188169369</v>
       </c>
       <c r="G17">
-        <v>1.509737092437547</v>
+        <v>0.1929759095893999</v>
       </c>
       <c r="H17">
-        <v>0.754475210603232</v>
+        <v>0.1243616608095834</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001980510829046267</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2194474114329239</v>
       </c>
       <c r="K17">
-        <v>8.248865032265314</v>
+        <v>0.3000450649629443</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06043050522044791</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.341059538416062</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04931518089992792</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8167887645404903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2179878343150108</v>
+        <v>0.2491502649191659</v>
       </c>
       <c r="D18">
-        <v>0.004877963764357673</v>
+        <v>0.1991551336749495</v>
       </c>
       <c r="E18">
-        <v>2.187596729182857</v>
+        <v>0.08588994060882627</v>
       </c>
       <c r="F18">
-        <v>1.486874415035487</v>
+        <v>0.4564542062662937</v>
       </c>
       <c r="G18">
-        <v>1.466037822594672</v>
+        <v>0.2151017349444473</v>
       </c>
       <c r="H18">
-        <v>0.7370323386852817</v>
+        <v>0.07154694922651572</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001708810070392808</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2324493755778221</v>
       </c>
       <c r="K18">
-        <v>8.030028092271948</v>
+        <v>0.3259583461634001</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06923242422378451</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.164632983602814</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06307464656780937</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.890865730741524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2158874628642309</v>
+        <v>0.2708738543087037</v>
       </c>
       <c r="D19">
-        <v>0.004910092139237321</v>
+        <v>0.2178970676190488</v>
       </c>
       <c r="E19">
-        <v>2.16477900014479</v>
+        <v>0.1068295435136335</v>
       </c>
       <c r="F19">
-        <v>1.472844564054114</v>
+        <v>0.506437394889339</v>
       </c>
       <c r="G19">
-        <v>1.451414095478299</v>
+        <v>0.2435843540992266</v>
       </c>
       <c r="H19">
-        <v>0.7312108758898432</v>
+        <v>0.02628732013297252</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001874639157273705</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2477460992377587</v>
       </c>
       <c r="K19">
-        <v>7.956169422005985</v>
+        <v>0.3596909220477364</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08709178408778584</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.107213550579615</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08801995127770113</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9832826684624649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2253772019511189</v>
+        <v>0.317695760061298</v>
       </c>
       <c r="D20">
-        <v>0.004777151985537742</v>
+        <v>0.2572775661880229</v>
       </c>
       <c r="E20">
-        <v>2.268157936940611</v>
+        <v>0.1484151761499604</v>
       </c>
       <c r="F20">
-        <v>1.536591481896551</v>
+        <v>0.5928789865383877</v>
       </c>
       <c r="G20">
-        <v>1.517908601515813</v>
+        <v>0.2912245494727586</v>
       </c>
       <c r="H20">
-        <v>0.7577445080368364</v>
+        <v>0.0001308625949847375</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002399888841230435</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.270116263849502</v>
       </c>
       <c r="K20">
-        <v>8.289482191804268</v>
+        <v>0.4178616521921796</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1293634466998199</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.385369737217161</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1421697070130463</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.131287897821778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2579982829265361</v>
+        <v>0.3540806166022321</v>
       </c>
       <c r="D21">
-        <v>0.004558144248218099</v>
+        <v>0.2880799787025836</v>
       </c>
       <c r="E21">
-        <v>2.629303230236246</v>
+        <v>0.165877223093446</v>
       </c>
       <c r="F21">
-        <v>1.76255785012637</v>
+        <v>0.6199951449612016</v>
       </c>
       <c r="G21">
-        <v>1.75457937018777</v>
+        <v>0.3002696787906061</v>
       </c>
       <c r="H21">
-        <v>0.8533575527814605</v>
+        <v>0.0004389623092975192</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003789775257228456</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2678411917744015</v>
       </c>
       <c r="K21">
-        <v>9.427922531971888</v>
+        <v>0.4347165370361452</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.143433493318895</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.302676524235608</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1592501913461888</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.146093718606721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2799671075189138</v>
+        <v>0.3780329873575852</v>
       </c>
       <c r="D22">
-        <v>0.004617659166946453</v>
+        <v>0.3066082218936828</v>
       </c>
       <c r="E22">
-        <v>2.877841751892646</v>
+        <v>0.1755133090648364</v>
       </c>
       <c r="F22">
-        <v>1.92049405867732</v>
+        <v>0.6361958201364288</v>
       </c>
       <c r="G22">
-        <v>1.920825455077562</v>
+        <v>0.305819463389426</v>
       </c>
       <c r="H22">
-        <v>0.9214406541480571</v>
+        <v>0.0009981057090018286</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004725079466664006</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2662261315549301</v>
       </c>
       <c r="K22">
-        <v>10.18860487156775</v>
+        <v>0.4451945930569821</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1506807856349468</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.902416708665953</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1671535795068024</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.154726679258332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2681755637418775</v>
+        <v>0.3673079551696219</v>
       </c>
       <c r="D23">
-        <v>0.004564988832713723</v>
+        <v>0.2966088389838291</v>
       </c>
       <c r="E23">
-        <v>2.743888701006526</v>
+        <v>0.1705688590901957</v>
       </c>
       <c r="F23">
-        <v>1.835158877522659</v>
+        <v>0.6290906966415903</v>
       </c>
       <c r="G23">
-        <v>1.830919578958543</v>
+        <v>0.3039675775229043</v>
       </c>
       <c r="H23">
-        <v>0.8845368305948682</v>
+        <v>0.000676255630305711</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003917912586982375</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2676517500703142</v>
       </c>
       <c r="K23">
-        <v>9.78089349883976</v>
+        <v>0.4412433715713249</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1471502887175618</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.582408064438141</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1624793818317869</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.15365405814056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.224853531995123</v>
+        <v>0.3231283364359854</v>
       </c>
       <c r="D24">
-        <v>0.004783670914315863</v>
+        <v>0.2590121426186016</v>
       </c>
       <c r="E24">
-        <v>2.262433975285234</v>
+        <v>0.1515314454924415</v>
       </c>
       <c r="F24">
-        <v>1.533049879616158</v>
+        <v>0.6013651523128019</v>
       </c>
       <c r="G24">
-        <v>1.514211070776895</v>
+        <v>0.296651751656114</v>
       </c>
       <c r="H24">
-        <v>0.7562648919309538</v>
+        <v>1.833797184969121E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001941475273753213</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2729972377821568</v>
       </c>
       <c r="K24">
-        <v>8.271114984901487</v>
+        <v>0.424551420302663</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1331986813438633</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.37102100696012</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1456392574423688</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.148824394041924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1802992139901534</v>
+        <v>0.2750548865397917</v>
       </c>
       <c r="D25">
-        <v>0.005691257554712337</v>
+        <v>0.2186253919214494</v>
       </c>
       <c r="E25">
-        <v>1.783438838883669</v>
+        <v>0.131004740752811</v>
       </c>
       <c r="F25">
-        <v>1.24224156839729</v>
+        <v>0.5750748714228138</v>
       </c>
       <c r="G25">
-        <v>1.211986163473057</v>
+        <v>0.2919402335663293</v>
       </c>
       <c r="H25">
-        <v>0.6371902856164411</v>
+        <v>0.0004057936162511488</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001078670185919783</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2806249793653066</v>
       </c>
       <c r="K25">
-        <v>6.696862708502351</v>
+        <v>0.4085942934185489</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1180667933647044</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.064790182549018</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1276934756508865</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.154225832961217</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.244149024756112</v>
+        <v>0.192560834708587</v>
       </c>
       <c r="D2">
-        <v>0.1887269755622754</v>
+        <v>0.1911642176845731</v>
       </c>
       <c r="E2">
-        <v>0.1163450234085914</v>
+        <v>0.1118870439021045</v>
       </c>
       <c r="F2">
-        <v>0.5624492341501579</v>
+        <v>0.5221254037158971</v>
       </c>
       <c r="G2">
-        <v>0.2937836930686046</v>
+        <v>0.2488562525329741</v>
       </c>
       <c r="H2">
-        <v>0.001508086590612856</v>
+        <v>0.001188127597897659</v>
       </c>
       <c r="I2">
-        <v>0.0007090346462783614</v>
+        <v>0.0006033008142898311</v>
       </c>
       <c r="J2">
-        <v>0.2892038055577189</v>
+        <v>0.2992836169497792</v>
       </c>
       <c r="K2">
-        <v>0.4025183070426976</v>
+        <v>0.3566967702248327</v>
       </c>
       <c r="L2">
-        <v>0.1076360502726423</v>
+        <v>0.1796235494512679</v>
       </c>
       <c r="M2">
-        <v>5.10224426998127</v>
+        <v>0.09607160205407084</v>
       </c>
       <c r="N2">
-        <v>0.1135590392008581</v>
+        <v>0.09952716350242952</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.106187962821082</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1278926703153758</v>
       </c>
       <c r="Q2">
-        <v>1.17564645767348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.076218718099028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2200698476095369</v>
+        <v>0.1747224590842222</v>
       </c>
       <c r="D3">
-        <v>0.1686469868152471</v>
+        <v>0.1708031658536839</v>
       </c>
       <c r="E3">
-        <v>0.1061034927186242</v>
+        <v>0.1023658055739034</v>
       </c>
       <c r="F3">
-        <v>0.5531601939405846</v>
+        <v>0.516747993626673</v>
       </c>
       <c r="G3">
-        <v>0.294701902692033</v>
+        <v>0.2533552873809342</v>
       </c>
       <c r="H3">
-        <v>0.002724662629524865</v>
+        <v>0.002189854539848102</v>
       </c>
       <c r="I3">
-        <v>0.001338958827102221</v>
+        <v>0.0009262565000751621</v>
       </c>
       <c r="J3">
-        <v>0.2949943071234244</v>
+        <v>0.3035134540115365</v>
       </c>
       <c r="K3">
-        <v>0.3969037440215111</v>
+        <v>0.3547227956136076</v>
       </c>
       <c r="L3">
-        <v>0.1000219048033451</v>
+        <v>0.1834145683697592</v>
       </c>
       <c r="M3">
-        <v>4.448523685014948</v>
+        <v>0.09196631468663874</v>
       </c>
       <c r="N3">
-        <v>0.104673412200448</v>
+        <v>0.09301183503873389</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.453179292071752</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.117865622234774</v>
       </c>
       <c r="Q3">
-        <v>1.189395157697334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.097339764434039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2050520545110857</v>
+        <v>0.1634881798909049</v>
       </c>
       <c r="D4">
-        <v>0.1563328903671959</v>
+        <v>0.1583194713032867</v>
       </c>
       <c r="E4">
-        <v>0.09978788780534842</v>
+        <v>0.09648290104000523</v>
       </c>
       <c r="F4">
-        <v>0.5481015094296779</v>
+        <v>0.5139671109897748</v>
       </c>
       <c r="G4">
-        <v>0.2958271117080358</v>
+        <v>0.2566884356902079</v>
       </c>
       <c r="H4">
-        <v>0.003685118816844524</v>
+        <v>0.002986216087939475</v>
       </c>
       <c r="I4">
-        <v>0.001973232188790863</v>
+        <v>0.001323941193739131</v>
       </c>
       <c r="J4">
-        <v>0.2989150286505406</v>
+        <v>0.3062906348515213</v>
       </c>
       <c r="K4">
-        <v>0.3937856237079878</v>
+        <v>0.3537142663049622</v>
       </c>
       <c r="L4">
-        <v>0.09529081888004498</v>
+        <v>0.1857702505692558</v>
       </c>
       <c r="M4">
-        <v>4.046347973764796</v>
+        <v>0.09008189753855866</v>
       </c>
       <c r="N4">
-        <v>0.09926649532658161</v>
+        <v>0.08894375984569436</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.051335946670861</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1117949401849785</v>
       </c>
       <c r="Q4">
-        <v>1.199784146957157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.111924147334136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1983683584378753</v>
+        <v>0.1583895430443079</v>
       </c>
       <c r="D5">
-        <v>0.1513440299985547</v>
+        <v>0.1532622706859996</v>
       </c>
       <c r="E5">
-        <v>0.09715740306769405</v>
+        <v>0.09402822298838842</v>
       </c>
       <c r="F5">
-        <v>0.5457790854986229</v>
+        <v>0.5125673095533472</v>
       </c>
       <c r="G5">
-        <v>0.2961143176015995</v>
+        <v>0.2579071098187171</v>
       </c>
       <c r="H5">
-        <v>0.004130858030455042</v>
+        <v>0.003356945931839883</v>
       </c>
       <c r="I5">
-        <v>0.002364823849586806</v>
+        <v>0.001619146607814592</v>
       </c>
       <c r="J5">
-        <v>0.3004417564818596</v>
+        <v>0.3073099451472956</v>
       </c>
       <c r="K5">
-        <v>0.392163731891582</v>
+        <v>0.3529592574014337</v>
       </c>
       <c r="L5">
-        <v>0.09326412043932919</v>
+        <v>0.1865444738701036</v>
       </c>
       <c r="M5">
-        <v>3.88221818356584</v>
+        <v>0.08936833216014861</v>
       </c>
       <c r="N5">
-        <v>0.09718401449393355</v>
+        <v>0.08718962819436982</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.887319099799186</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1094553233513054</v>
       </c>
       <c r="Q5">
-        <v>1.203503484233138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.117350184046614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1966377683508966</v>
+        <v>0.1569899293183425</v>
       </c>
       <c r="D6">
-        <v>0.1505480263954695</v>
+        <v>0.1524548333851499</v>
       </c>
       <c r="E6">
-        <v>0.09665959172216176</v>
+        <v>0.09356163063320366</v>
       </c>
       <c r="F6">
-        <v>0.5448934385317443</v>
+        <v>0.5118631500503312</v>
       </c>
       <c r="G6">
-        <v>0.2957960380811784</v>
+        <v>0.2577801596193936</v>
       </c>
       <c r="H6">
-        <v>0.004211612400121689</v>
+        <v>0.003424259091700077</v>
       </c>
       <c r="I6">
-        <v>0.00253072659033915</v>
+        <v>0.001783987574325963</v>
       </c>
       <c r="J6">
-        <v>0.3005050322518485</v>
+        <v>0.3072907548594301</v>
       </c>
       <c r="K6">
-        <v>0.3913730635513808</v>
+        <v>0.3523572505599581</v>
       </c>
       <c r="L6">
-        <v>0.09282367668413016</v>
+        <v>0.1864388747881982</v>
       </c>
       <c r="M6">
-        <v>3.85492470921065</v>
+        <v>0.08913175779408355</v>
       </c>
       <c r="N6">
-        <v>0.09697327006947631</v>
+        <v>0.08680068816783404</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.860043607308228</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1092074840165225</v>
       </c>
       <c r="Q6">
-        <v>1.202946305934276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.117166550811291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2032702986548571</v>
+        <v>0.1621190186989168</v>
       </c>
       <c r="D7">
-        <v>0.1563537580559284</v>
+        <v>0.1585447862597533</v>
       </c>
       <c r="E7">
-        <v>0.09958682251950179</v>
+        <v>0.09632942570097214</v>
       </c>
       <c r="F7">
-        <v>0.5466796594639263</v>
+        <v>0.5119212833512989</v>
       </c>
       <c r="G7">
-        <v>0.2948099893838787</v>
+        <v>0.2575343138845767</v>
       </c>
       <c r="H7">
-        <v>0.003700160734362301</v>
+        <v>0.003002357601195271</v>
       </c>
       <c r="I7">
-        <v>0.002227626844703678</v>
+        <v>0.001619701331984302</v>
       </c>
       <c r="J7">
-        <v>0.2984026435138531</v>
+        <v>0.3030157062602754</v>
       </c>
       <c r="K7">
-        <v>0.3923263352757012</v>
+        <v>0.3519128489337575</v>
       </c>
       <c r="L7">
-        <v>0.09498186987115176</v>
+        <v>0.1849271724579822</v>
       </c>
       <c r="M7">
-        <v>4.044062086237545</v>
+        <v>0.08957268055788425</v>
       </c>
       <c r="N7">
-        <v>0.09960591819107378</v>
+        <v>0.08863288126908131</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.049009094031874</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1121299767377266</v>
       </c>
       <c r="Q7">
-        <v>1.196552612252148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.107163064397739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2336372646145293</v>
+        <v>0.1851506368072222</v>
       </c>
       <c r="D8">
-        <v>0.1819167999913134</v>
+        <v>0.1849459437463992</v>
       </c>
       <c r="E8">
-        <v>0.1125991018214663</v>
+        <v>0.1085322963751025</v>
       </c>
       <c r="F8">
-        <v>0.5572743648559637</v>
+        <v>0.5160738509421776</v>
       </c>
       <c r="G8">
-        <v>0.2926348854849365</v>
+        <v>0.2549434717879251</v>
       </c>
       <c r="H8">
-        <v>0.001890086816986214</v>
+        <v>0.001509081072221363</v>
       </c>
       <c r="I8">
-        <v>0.001168355737494409</v>
+        <v>0.001021805018774913</v>
       </c>
       <c r="J8">
-        <v>0.2904247879768818</v>
+        <v>0.2911302864151963</v>
       </c>
       <c r="K8">
-        <v>0.3986121196283179</v>
+        <v>0.352674485715454</v>
       </c>
       <c r="L8">
-        <v>0.1046484486928101</v>
+        <v>0.1794774351287636</v>
       </c>
       <c r="M8">
-        <v>4.876885454465025</v>
+        <v>0.09348004725075398</v>
       </c>
       <c r="N8">
-        <v>0.1109741895261891</v>
+        <v>0.09687063963241727</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.88094766486455</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1248783699657352</v>
       </c>
       <c r="Q8">
-        <v>1.175656647268411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.073275488724832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2943986054760188</v>
+        <v>0.2300489536477954</v>
       </c>
       <c r="D9">
-        <v>0.2320524660801624</v>
+        <v>0.2359934829782162</v>
       </c>
       <c r="E9">
-        <v>0.1382213196185837</v>
+        <v>0.1323309838411184</v>
       </c>
       <c r="F9">
-        <v>0.5859562896473136</v>
+        <v>0.5335324489133129</v>
       </c>
       <c r="G9">
-        <v>0.2949436481146961</v>
+        <v>0.2498867806692928</v>
       </c>
       <c r="H9">
-        <v>0.0001359780019205559</v>
+        <v>9.097393569956758E-05</v>
       </c>
       <c r="I9">
-        <v>0.00081540944272529</v>
+        <v>0.001086803913938894</v>
       </c>
       <c r="J9">
-        <v>0.2787526555578737</v>
+        <v>0.2798762653021711</v>
       </c>
       <c r="K9">
-        <v>0.4162832172758826</v>
+        <v>0.3599626551433843</v>
       </c>
       <c r="L9">
-        <v>0.1236860046524839</v>
+        <v>0.1708531407322234</v>
       </c>
       <c r="M9">
-        <v>6.505035912591097</v>
+        <v>0.1075052630658142</v>
       </c>
       <c r="N9">
-        <v>0.1330396571363579</v>
+        <v>0.113058308186595</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.506515245801722</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.149972203316878</v>
       </c>
       <c r="Q9">
-        <v>1.156873862283007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.03229119035106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3333535613157608</v>
+        <v>0.2595630118312471</v>
       </c>
       <c r="D10">
-        <v>0.266067974872513</v>
+        <v>0.271852685085463</v>
       </c>
       <c r="E10">
-        <v>0.1529595143044169</v>
+        <v>0.1460860550991541</v>
       </c>
       <c r="F10">
-        <v>0.6019622883832767</v>
+        <v>0.5376966639548186</v>
       </c>
       <c r="G10">
-        <v>0.2947252367692528</v>
+        <v>0.2557462075250854</v>
       </c>
       <c r="H10">
-        <v>0.00027232487563289</v>
+        <v>0.0002773415946650815</v>
       </c>
       <c r="I10">
-        <v>0.002109568221751346</v>
+        <v>0.00240981700731524</v>
       </c>
       <c r="J10">
-        <v>0.2695479238063996</v>
+        <v>0.2564940336196813</v>
       </c>
       <c r="K10">
-        <v>0.4249301743903544</v>
+        <v>0.3588444619918967</v>
       </c>
       <c r="L10">
-        <v>0.132797956524449</v>
+        <v>0.1619452495170606</v>
       </c>
       <c r="M10">
-        <v>7.699237513658659</v>
+        <v>0.1179512178174349</v>
       </c>
       <c r="N10">
-        <v>0.1442023380243924</v>
+        <v>0.1203298564843038</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.697730416665365</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.1629016907849277</v>
       </c>
       <c r="Q10">
-        <v>1.137655372821044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9878245492950839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3163530249770474</v>
+        <v>0.250190415574707</v>
       </c>
       <c r="D11">
-        <v>0.2555172240653576</v>
+        <v>0.2635736072548696</v>
       </c>
       <c r="E11">
-        <v>0.1273542999246402</v>
+        <v>0.1218165886876612</v>
       </c>
       <c r="F11">
-        <v>0.5393226231846242</v>
+        <v>0.4734185656104941</v>
       </c>
       <c r="G11">
-        <v>0.2542997131838973</v>
+        <v>0.2412576007211484</v>
       </c>
       <c r="H11">
-        <v>0.01885862197164201</v>
+        <v>0.01884978684578797</v>
       </c>
       <c r="I11">
-        <v>0.003105972038364158</v>
+        <v>0.003446013824816241</v>
       </c>
       <c r="J11">
-        <v>0.2448592794974616</v>
+        <v>0.2152882334308757</v>
       </c>
       <c r="K11">
-        <v>0.3804157199103066</v>
+        <v>0.3161221297326797</v>
       </c>
       <c r="L11">
-        <v>0.1022687498252957</v>
+        <v>0.1434691412649407</v>
       </c>
       <c r="M11">
-        <v>8.237378120960443</v>
+        <v>0.1056744271355932</v>
       </c>
       <c r="N11">
-        <v>0.1064631801006257</v>
+        <v>0.0924855869459229</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.234406104075845</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1211345519398108</v>
       </c>
       <c r="Q11">
-        <v>1.000448987781994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8494891087254359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2969638616563799</v>
+        <v>0.2378876977066255</v>
       </c>
       <c r="D12">
-        <v>0.2394100337762382</v>
+        <v>0.2481357640457844</v>
       </c>
       <c r="E12">
-        <v>0.1055333564759486</v>
+        <v>0.1010463284577447</v>
       </c>
       <c r="F12">
-        <v>0.4872842807177662</v>
+        <v>0.4251898196612274</v>
       </c>
       <c r="G12">
-        <v>0.2235015632213333</v>
+        <v>0.2224321229774162</v>
       </c>
       <c r="H12">
-        <v>0.05750197548399427</v>
+        <v>0.05749160369050088</v>
       </c>
       <c r="I12">
-        <v>0.003199391748320402</v>
+        <v>0.003520594619680573</v>
       </c>
       <c r="J12">
-        <v>0.2274566238100562</v>
+        <v>0.1986390903756163</v>
       </c>
       <c r="K12">
-        <v>0.3448424241082648</v>
+        <v>0.2856451541940821</v>
       </c>
       <c r="L12">
-        <v>0.08149501419542204</v>
+        <v>0.1319972228766151</v>
       </c>
       <c r="M12">
-        <v>8.439224556245335</v>
+        <v>0.09474811731756461</v>
       </c>
       <c r="N12">
-        <v>0.07844321990824099</v>
+        <v>0.07423056149706042</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.43588559393686</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08963503269573181</v>
       </c>
       <c r="Q12">
-        <v>0.8987751200924663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7588631823354888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2720782084808349</v>
+        <v>0.2199653458327333</v>
       </c>
       <c r="D13">
-        <v>0.2183401749697822</v>
+        <v>0.2261166057661939</v>
       </c>
       <c r="E13">
-        <v>0.08520916572448201</v>
+        <v>0.08158190240651209</v>
       </c>
       <c r="F13">
-        <v>0.4381166774727916</v>
+        <v>0.3850924391441168</v>
       </c>
       <c r="G13">
-        <v>0.19654348979698</v>
+        <v>0.1942975002535547</v>
       </c>
       <c r="H13">
-        <v>0.1131768536703106</v>
+        <v>0.1131737761457714</v>
       </c>
       <c r="I13">
-        <v>0.002908915434042036</v>
+        <v>0.003254877289394997</v>
       </c>
       <c r="J13">
-        <v>0.213696528564526</v>
+        <v>0.1948846253672638</v>
       </c>
       <c r="K13">
-        <v>0.3117834111901736</v>
+        <v>0.261162969984241</v>
       </c>
       <c r="L13">
-        <v>0.06660569533907079</v>
+        <v>0.1240591380535836</v>
       </c>
       <c r="M13">
-        <v>8.39175795637658</v>
+        <v>0.0840044422951074</v>
       </c>
       <c r="N13">
-        <v>0.05691383580402132</v>
+        <v>0.06180189686760862</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.389045338911671</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06496946242646118</v>
       </c>
       <c r="Q13">
-        <v>0.8127678821209088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.695440091625116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2519616597108865</v>
+        <v>0.2047066489115679</v>
       </c>
       <c r="D14">
-        <v>0.2015358084828449</v>
+        <v>0.2080212531277397</v>
       </c>
       <c r="E14">
-        <v>0.07211050897984528</v>
+        <v>0.06901857840325043</v>
       </c>
       <c r="F14">
-        <v>0.4052722019967376</v>
+        <v>0.3603771156766342</v>
       </c>
       <c r="G14">
-        <v>0.1795890606196977</v>
+        <v>0.1720207643047544</v>
       </c>
       <c r="H14">
-        <v>0.1624666442768614</v>
+        <v>0.1624672541049108</v>
       </c>
       <c r="I14">
-        <v>0.002634531262519779</v>
+        <v>0.003024933162901533</v>
       </c>
       <c r="J14">
-        <v>0.2057659383091774</v>
+        <v>0.1961992208607732</v>
       </c>
       <c r="K14">
-        <v>0.2898648874557601</v>
+        <v>0.2463926940099803</v>
       </c>
       <c r="L14">
-        <v>0.05974240970921851</v>
+        <v>0.1197871874112959</v>
       </c>
       <c r="M14">
-        <v>8.245491007725718</v>
+        <v>0.07663025608039575</v>
       </c>
       <c r="N14">
-        <v>0.04582518760008014</v>
+        <v>0.05652922052721321</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.243632649610674</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05192712804972111</v>
       </c>
       <c r="Q14">
-        <v>0.7601408147097857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6621830442739238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2453256288943351</v>
+        <v>0.1993694702793363</v>
       </c>
       <c r="D15">
-        <v>0.1964381386856928</v>
+        <v>0.2023472591425275</v>
       </c>
       <c r="E15">
-        <v>0.06889366181116507</v>
+        <v>0.06592509278974035</v>
       </c>
       <c r="F15">
-        <v>0.3972736712474472</v>
+        <v>0.3551911458205126</v>
       </c>
       <c r="G15">
-        <v>0.1758076045749846</v>
+        <v>0.1652581726595912</v>
       </c>
       <c r="H15">
-        <v>0.1749537681069029</v>
+        <v>0.1749542496590664</v>
       </c>
       <c r="I15">
-        <v>0.002605820943824888</v>
+        <v>0.003034239381833004</v>
       </c>
       <c r="J15">
-        <v>0.2043849824152346</v>
+        <v>0.1982000692040788</v>
       </c>
       <c r="K15">
-        <v>0.2844908933846888</v>
+        <v>0.2433452186125891</v>
       </c>
       <c r="L15">
-        <v>0.05847551797710349</v>
+        <v>0.1191371883359746</v>
       </c>
       <c r="M15">
-        <v>8.15665894604939</v>
+        <v>0.07469518417405752</v>
       </c>
       <c r="N15">
-        <v>0.04367656971151845</v>
+        <v>0.05564108822064329</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.155203807329599</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04935704453571255</v>
       </c>
       <c r="Q15">
-        <v>0.7491907629135142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6576743854588258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2334493595914751</v>
+        <v>0.1883659859361302</v>
       </c>
       <c r="D16">
-        <v>0.1866771567934649</v>
+        <v>0.1903787365369993</v>
       </c>
       <c r="E16">
-        <v>0.06718726972433942</v>
+        <v>0.06420144052767007</v>
       </c>
       <c r="F16">
-        <v>0.3997145473114472</v>
+        <v>0.3648472131062483</v>
       </c>
       <c r="G16">
-        <v>0.1804899277586856</v>
+        <v>0.1560624442515675</v>
       </c>
       <c r="H16">
-        <v>0.1621420466002377</v>
+        <v>0.1621227221436214</v>
       </c>
       <c r="I16">
-        <v>0.002141372390910057</v>
+        <v>0.00262540871810657</v>
       </c>
       <c r="J16">
-        <v>0.2105313458346671</v>
+        <v>0.216513551018835</v>
       </c>
       <c r="K16">
-        <v>0.2868242535785193</v>
+        <v>0.2505955218108973</v>
       </c>
       <c r="L16">
-        <v>0.05790182056125071</v>
+        <v>0.123730151035824</v>
       </c>
       <c r="M16">
-        <v>7.650542616810299</v>
+        <v>0.07412771536642282</v>
       </c>
       <c r="N16">
-        <v>0.04390133149176911</v>
+        <v>0.05514662619289723</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.65081818276434</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04980861525501012</v>
       </c>
       <c r="Q16">
-        <v>0.7717723163593746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6951529947363113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2347590915496909</v>
+        <v>0.1880773805938105</v>
       </c>
       <c r="D17">
-        <v>0.1880171431307218</v>
+        <v>0.1909306635045454</v>
       </c>
       <c r="E17">
-        <v>0.07248179919298892</v>
+        <v>0.06921520890396771</v>
       </c>
       <c r="F17">
-        <v>0.4188011188169369</v>
+        <v>0.3849074799150785</v>
       </c>
       <c r="G17">
-        <v>0.1929759095893999</v>
+        <v>0.1617371083998691</v>
       </c>
       <c r="H17">
-        <v>0.1243616608095834</v>
+        <v>0.1243188922989447</v>
       </c>
       <c r="I17">
-        <v>0.001980510829046267</v>
+        <v>0.002476459118123664</v>
       </c>
       <c r="J17">
-        <v>0.2194474114329239</v>
+        <v>0.2308937639016442</v>
       </c>
       <c r="K17">
-        <v>0.3000450649629443</v>
+        <v>0.2637010800236403</v>
       </c>
       <c r="L17">
-        <v>0.06043050522044791</v>
+        <v>0.1297464441580445</v>
       </c>
       <c r="M17">
-        <v>7.341059538416062</v>
+        <v>0.07725870710430272</v>
       </c>
       <c r="N17">
-        <v>0.04931518089992792</v>
+        <v>0.05699191645181223</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.34210216413851</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05635195817232841</v>
       </c>
       <c r="Q17">
-        <v>0.8167887645404903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7411631058832171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2491502649191659</v>
+        <v>0.1978768553668431</v>
       </c>
       <c r="D18">
-        <v>0.1991551336749495</v>
+        <v>0.2019610312705566</v>
       </c>
       <c r="E18">
-        <v>0.08588994060882627</v>
+        <v>0.08198171544538724</v>
       </c>
       <c r="F18">
-        <v>0.4564542062662937</v>
+        <v>0.4193288143007621</v>
       </c>
       <c r="G18">
-        <v>0.2151017349444473</v>
+        <v>0.1781846115296588</v>
       </c>
       <c r="H18">
-        <v>0.07154694922651572</v>
+        <v>0.07149676406708494</v>
       </c>
       <c r="I18">
-        <v>0.001708810070392808</v>
+        <v>0.002157348931474345</v>
       </c>
       <c r="J18">
-        <v>0.2324493755778221</v>
+        <v>0.2451578823920855</v>
       </c>
       <c r="K18">
-        <v>0.3259583461634001</v>
+        <v>0.2857136620920784</v>
       </c>
       <c r="L18">
-        <v>0.06923242422378451</v>
+        <v>0.1386423383706656</v>
       </c>
       <c r="M18">
-        <v>7.164632983602814</v>
+        <v>0.08462018722693188</v>
       </c>
       <c r="N18">
-        <v>0.06307464656780937</v>
+        <v>0.0642689217371526</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.165871212166564</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.072287846635259</v>
       </c>
       <c r="Q18">
-        <v>0.890865730741524</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8065926177134486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2708738543087037</v>
+        <v>0.212910437654827</v>
       </c>
       <c r="D19">
-        <v>0.2178970676190488</v>
+        <v>0.2209945163318281</v>
       </c>
       <c r="E19">
-        <v>0.1068295435136335</v>
+        <v>0.1019567513981023</v>
       </c>
       <c r="F19">
-        <v>0.506437394889339</v>
+        <v>0.463207917351653</v>
       </c>
       <c r="G19">
-        <v>0.2435843540992266</v>
+        <v>0.2010391750788116</v>
       </c>
       <c r="H19">
-        <v>0.02628732013297252</v>
+        <v>0.02625153436992633</v>
       </c>
       <c r="I19">
-        <v>0.001874639157273705</v>
+        <v>0.002349699452253162</v>
       </c>
       <c r="J19">
-        <v>0.2477460992377587</v>
+        <v>0.259029017223348</v>
       </c>
       <c r="K19">
-        <v>0.3596909220477364</v>
+        <v>0.3129775155569483</v>
       </c>
       <c r="L19">
-        <v>0.08709178408778584</v>
+        <v>0.1490522646708392</v>
       </c>
       <c r="M19">
-        <v>7.107213550579615</v>
+        <v>0.09471498531332045</v>
       </c>
       <c r="N19">
-        <v>0.08801995127770113</v>
+        <v>0.07984632728588181</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.108228935290413</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.100408984644794</v>
       </c>
       <c r="Q19">
-        <v>0.9832826684624649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8838156004295712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.317695760061298</v>
+        <v>0.2465074504056446</v>
       </c>
       <c r="D20">
-        <v>0.2572775661880229</v>
+        <v>0.2618121036118737</v>
       </c>
       <c r="E20">
-        <v>0.1484151761499604</v>
+        <v>0.1416864626514389</v>
       </c>
       <c r="F20">
-        <v>0.5928789865383877</v>
+        <v>0.5346922580354487</v>
       </c>
       <c r="G20">
-        <v>0.2912245494727586</v>
+        <v>0.244457392265069</v>
       </c>
       <c r="H20">
-        <v>0.0001308625949847375</v>
+        <v>0.0001376284009726447</v>
       </c>
       <c r="I20">
-        <v>0.002399888841230435</v>
+        <v>0.002880109910394779</v>
       </c>
       <c r="J20">
-        <v>0.270116263849502</v>
+        <v>0.269633596861965</v>
       </c>
       <c r="K20">
-        <v>0.4178616521921796</v>
+        <v>0.3566562302320477</v>
       </c>
       <c r="L20">
-        <v>0.1293634466998199</v>
+        <v>0.1633558603652929</v>
       </c>
       <c r="M20">
-        <v>7.385369737217161</v>
+        <v>0.1140909814286566</v>
       </c>
       <c r="N20">
-        <v>0.1421697070130463</v>
+        <v>0.1175474215876662</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.384937190074595</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.1604903932654977</v>
       </c>
       <c r="Q20">
-        <v>1.131287897821778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9956986821403717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3540806166022321</v>
+        <v>0.2775479695239227</v>
       </c>
       <c r="D21">
-        <v>0.2880799787025836</v>
+        <v>0.298262622719804</v>
       </c>
       <c r="E21">
-        <v>0.165877223093446</v>
+        <v>0.1589110088298504</v>
       </c>
       <c r="F21">
-        <v>0.6199951449612016</v>
+        <v>0.5373719026342627</v>
       </c>
       <c r="G21">
-        <v>0.3002696787906061</v>
+        <v>0.2939429742699105</v>
       </c>
       <c r="H21">
-        <v>0.0004389623092975192</v>
+        <v>0.0003972133235692343</v>
       </c>
       <c r="I21">
-        <v>0.003789775257228456</v>
+        <v>0.004105821452954572</v>
       </c>
       <c r="J21">
-        <v>0.2678411917744015</v>
+        <v>0.2182327011549923</v>
       </c>
       <c r="K21">
-        <v>0.4347165370361452</v>
+        <v>0.3551436088973148</v>
       </c>
       <c r="L21">
-        <v>0.143433493318895</v>
+        <v>0.1564855709213013</v>
       </c>
       <c r="M21">
-        <v>8.302676524235608</v>
+        <v>0.122448940076918</v>
       </c>
       <c r="N21">
-        <v>0.1592501913461888</v>
+        <v>0.1291009647235839</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.298475900315566</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.1795747234807976</v>
       </c>
       <c r="Q21">
-        <v>1.146093718606721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9534315078610689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3780329873575852</v>
+        <v>0.2986766981626232</v>
       </c>
       <c r="D22">
-        <v>0.3066082218936828</v>
+        <v>0.320915618635695</v>
       </c>
       <c r="E22">
-        <v>0.1755133090648364</v>
+        <v>0.1685567960044452</v>
       </c>
       <c r="F22">
-        <v>0.6361958201364288</v>
+        <v>0.5366683907560486</v>
       </c>
       <c r="G22">
-        <v>0.305819463389426</v>
+        <v>0.3331324788352248</v>
       </c>
       <c r="H22">
-        <v>0.0009981057090018286</v>
+        <v>0.000864077365184901</v>
       </c>
       <c r="I22">
-        <v>0.004725079466664006</v>
+        <v>0.004781299562773178</v>
       </c>
       <c r="J22">
-        <v>0.2662261315549301</v>
+        <v>0.1924958025393249</v>
       </c>
       <c r="K22">
-        <v>0.4451945930569821</v>
+        <v>0.3530390066168039</v>
       </c>
       <c r="L22">
-        <v>0.1506807856349468</v>
+        <v>0.1517070570966723</v>
       </c>
       <c r="M22">
-        <v>8.902416708665953</v>
+        <v>0.1278080521470635</v>
       </c>
       <c r="N22">
-        <v>0.1671535795068024</v>
+        <v>0.1348484530965095</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.895469560489289</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.188487057433548</v>
       </c>
       <c r="Q22">
-        <v>1.154726679258332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9226702913670692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3673079551696219</v>
+        <v>0.2886049387205389</v>
       </c>
       <c r="D23">
-        <v>0.2966088389838291</v>
+        <v>0.3081131465279867</v>
       </c>
       <c r="E23">
-        <v>0.1705688590901957</v>
+        <v>0.1634808150547933</v>
       </c>
       <c r="F23">
-        <v>0.6290906966415903</v>
+        <v>0.5402802871044941</v>
       </c>
       <c r="G23">
-        <v>0.3039675775229043</v>
+        <v>0.3073298281597019</v>
       </c>
       <c r="H23">
-        <v>0.000676255630305711</v>
+        <v>0.0005990705148848363</v>
       </c>
       <c r="I23">
-        <v>0.003917912586982375</v>
+        <v>0.004063117236799307</v>
       </c>
       <c r="J23">
-        <v>0.2676517500703142</v>
+        <v>0.2089957969682281</v>
       </c>
       <c r="K23">
-        <v>0.4412433715713249</v>
+        <v>0.3567746195033585</v>
       </c>
       <c r="L23">
-        <v>0.1471502887175618</v>
+        <v>0.1551243073595323</v>
       </c>
       <c r="M23">
-        <v>8.582408064438141</v>
+        <v>0.1260139929252446</v>
       </c>
       <c r="N23">
-        <v>0.1624793818317869</v>
+        <v>0.1321437374047463</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.577067984711448</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.1832834662978655</v>
       </c>
       <c r="Q23">
-        <v>1.15365405814056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9465309755321556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3231283364359854</v>
+        <v>0.2507239532248775</v>
       </c>
       <c r="D24">
-        <v>0.2590121426186016</v>
+        <v>0.2635488593073347</v>
       </c>
       <c r="E24">
-        <v>0.1515314454924415</v>
+        <v>0.1446658420810394</v>
       </c>
       <c r="F24">
-        <v>0.6013651523128019</v>
+        <v>0.5423441228502952</v>
       </c>
       <c r="G24">
-        <v>0.296651751656114</v>
+        <v>0.2488057146620548</v>
       </c>
       <c r="H24">
-        <v>1.833797184969121E-05</v>
+        <v>2.620493049554362E-05</v>
       </c>
       <c r="I24">
-        <v>0.001941475273753213</v>
+        <v>0.002321983363390956</v>
       </c>
       <c r="J24">
-        <v>0.2729972377821568</v>
+        <v>0.272498829816989</v>
       </c>
       <c r="K24">
-        <v>0.424551420302663</v>
+        <v>0.362314384386444</v>
       </c>
       <c r="L24">
-        <v>0.1331986813438633</v>
+        <v>0.1655237044498925</v>
       </c>
       <c r="M24">
-        <v>7.37102100696012</v>
+        <v>0.1161734476874834</v>
       </c>
       <c r="N24">
-        <v>0.1456392574423688</v>
+        <v>0.1210390918175719</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.370566541210337</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.1643341485737295</v>
       </c>
       <c r="Q24">
-        <v>1.148824394041924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.010937485167901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2750548865397917</v>
+        <v>0.2151792736129892</v>
       </c>
       <c r="D25">
-        <v>0.2186253919214494</v>
+        <v>0.2220191143753709</v>
       </c>
       <c r="E25">
-        <v>0.131004740752811</v>
+        <v>0.1255724860647902</v>
       </c>
       <c r="F25">
-        <v>0.5750748714228138</v>
+        <v>0.5270129296960278</v>
       </c>
       <c r="G25">
-        <v>0.2919402335663293</v>
+        <v>0.2465106579371792</v>
       </c>
       <c r="H25">
-        <v>0.0004057936162511488</v>
+        <v>0.0002997663204014067</v>
       </c>
       <c r="I25">
-        <v>0.001078670185919783</v>
+        <v>0.001367871900707307</v>
       </c>
       <c r="J25">
-        <v>0.2806249793653066</v>
+        <v>0.2856066303224623</v>
       </c>
       <c r="K25">
-        <v>0.4085942934185489</v>
+        <v>0.3561756801117255</v>
       </c>
       <c r="L25">
-        <v>0.1180667933647044</v>
+        <v>0.1725174743673534</v>
       </c>
       <c r="M25">
-        <v>6.064790182549018</v>
+        <v>0.1025729213224764</v>
       </c>
       <c r="N25">
-        <v>0.1276934756508865</v>
+        <v>0.1082932980199374</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.067181107725389</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1438304391046188</v>
       </c>
       <c r="Q25">
-        <v>1.154225832961217</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.039116012245671</v>
       </c>
     </row>
   </sheetData>
